--- a/examples/for_equinor/for_equinor-monopile/15mw/30m/outputs/monotow_output.xlsx
+++ b/examples/for_equinor/for_equinor-monopile/15mw/30m/outputs/monotow_output.xlsx
@@ -914,8 +914,8 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[[0.04514543 0.07876121 0.17970068 0.06154362 0.16179615 0.04514809
-  0.14913002]]</t>
+          <t>[[0.04514556 0.0787609  0.1797001  0.06154424 0.16179655 0.04514718
+  0.14912947]]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[2.9]</t>
+          <t>[2.61767583]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[[0.09262172 0.06441739 0.0176637  0.01174153 0.01345557]]</t>
+          <t>[[0.09262183 0.06441683 0.01766332 0.01174176 0.0134555 ]]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[10. 10. 10. 10.  6.]</t>
+          <t>[10.    10.    10.    10.     5.999]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -4573,10 +4573,10 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         39780.22436065
- 40357.70972735 42109.65455504 45095.48338686 49417.69395572
- 55228.0285286  62738.35165421 72239.16932525 84130.76656791
- 98975.2795454      0.             0.             0.
+          <t>[    0.             0.             0.         39780.22436066
+ 40357.70972737 42109.65455506 45095.48338688 49417.69395582
+ 55228.02852878 62738.3516545  72239.16932548 84130.76656805
+ 98975.27954542     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -4969,10 +4969,10 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         39780.22436065
- 40357.70972735 42109.65455504 45095.48338686 49417.69395572
- 55228.0285286  62738.35165421 72239.16932525 84130.76656791
- 98975.2795454      0.             0.             0.
+          <t>[    0.             0.             0.         39780.22436066
+ 40357.70972737 42109.65455506 45095.48338688 49417.69395582
+ 55228.02852878 62738.3516545  72239.16932548 84130.76656805
+ 98975.27954542     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -5115,10 +5115,10 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -39780.22436065
- -40357.70972735 -42109.65455504 -45095.48338686 -49417.69395572
- -55228.0285286  -62738.35165421 -72239.16932525 -84130.76656791
- -98975.2795454       0.              0.              0.
+          <t>[     0.              0.              0.         -39780.22436066
+ -40357.70972737 -42109.65455506 -45095.48338688 -49417.69395582
+ -55228.02852878 -62738.3516545  -72239.16932548 -84130.76656805
+ -98975.27954542      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>[0.06195332 0.12923095 0.12062215 0.11166989 0.10347212 0.09713905]</t>
+          <t>[0.06195323 0.1292305  0.12062217 0.11167039 0.10347187 0.09713833]</t>
         </is>
       </c>
       <c r="E205" t="inlineStr"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>[0.06195332 0.12923095 0.12062215 0.11166989 0.10347212 0.09713905]</t>
+          <t>[0.06195323 0.1292305  0.12062217 0.11167039 0.10347187 0.09713833]</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
@@ -5544,9 +5544,9 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>[0.06195332 0.06195332 0.06195332 0.12923095 0.12923095 0.12923095
- 0.12062215 0.12062215 0.12062215 0.11166989 0.11166989 0.11166989
- 0.10347212 0.10347212 0.10347212 0.09713905 0.09713905 0.09713905]</t>
+          <t>[0.06195323 0.06195323 0.06195323 0.1292305  0.1292305  0.1292305
+ 0.12062217 0.12062217 0.12062217 0.11167039 0.11167039 0.11167039
+ 0.10347187 0.10347187 0.10347187 0.09713833 0.09713833 0.09713833]</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[1815345.782241]</t>
+          <t>[1815343.72552836]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>[4359413.29981731]</t>
+          <t>[4359408.77471279]</t>
         </is>
       </c>
       <c r="E228" t="inlineStr"/>
@@ -5756,7 +5756,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>[41.61747877]</t>
+          <t>[41.61747796]</t>
         </is>
       </c>
       <c r="E229" t="inlineStr"/>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>[3.89333836e+09 3.89333836e+09 4.44770834e+07 0.00000000e+00
+          <t>[3.89333306e+09 3.89333306e+09 4.44770339e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>[1490043.80476494]</t>
+          <t>[1490030.51684965]</t>
         </is>
       </c>
       <c r="E231" t="inlineStr"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>[3900451.65899932]</t>
+          <t>[3900416.58582955]</t>
         </is>
       </c>
       <c r="E232" t="inlineStr"/>
@@ -5915,9 +5915,9 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[2.06966115 2.06966115 2.06966115 4.28796434 4.28796434 4.28796434
- 4.00580979 4.00580979 4.00580979 3.71186942 3.71186942 3.71186942
- 3.44222979 3.44222979 3.44222979 3.23361417 3.23361417 3.23361417]</t>
+          <t>[2.0696583  2.0696583  2.0696583  4.28794979 4.28794979 4.28794979
+ 4.00581033 4.00581033 4.00581033 3.71188598 3.71188598 3.71188598
+ 3.44222138 3.44222138 3.44222138 3.23359023 3.23359023 3.23359023]</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -5940,9 +5940,9 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>[1.17774488 1.17774488 1.17774488 2.44788253 2.44788253 2.44788253
- 2.28585096 2.28585096 2.28585096 2.11720314 2.11720314 2.11720314
- 1.96263241 1.96263241 1.96263241 1.84313093 1.84313093 1.84313093]</t>
+          <t>[1.17774326 1.17774326 1.17774326 2.44787417 2.44787417 2.44787417
+ 2.28585128 2.28585128 2.28585128 2.11721264 2.11721264 2.11721264
+ 1.96262759 1.96262759 1.96262759 1.84311723 1.84311723 1.84311723]</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -5965,9 +5965,9 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>[1.17774488 1.17774488 1.17774488 2.44788253 2.44788253 2.44788253
- 2.28585096 2.28585096 2.28585096 2.11720314 2.11720314 2.11720314
- 1.96263241 1.96263241 1.96263241 1.84313093 1.84313093 1.84313093]</t>
+          <t>[1.17774326 1.17774326 1.17774326 2.44787417 2.44787417 2.44787417
+ 2.28585128 2.28585128 2.28585128 2.11721264 2.11721264 2.11721264
+ 1.96262759 1.96262759 1.96262759 1.84311723 1.84311723 1.84311723]</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
@@ -5990,9 +5990,9 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>[25.5521944  25.5521944  25.5521944  52.232113   52.232113   52.232113
- 48.87921968 48.87921968 48.87921968 45.3736795  45.3736795  45.3736795
- 42.14664891 42.14664891 42.14664891 39.64252962 39.64252962 39.64252962]</t>
+          <t>[25.55215965 25.55215965 25.55215965 52.23194036 52.23194036 52.23194036
+ 48.87922618 48.87922618 48.87922618 45.37387745 45.37387745 45.37387745
+ 42.14654808 42.14654808 42.14654808 39.64224195 39.64224195 39.64224195]</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -6015,9 +6015,9 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>[25.5521944  25.5521944  25.5521944  52.232113   52.232113   52.232113
- 48.87921968 48.87921968 48.87921968 45.3736795  45.3736795  45.3736795
- 42.14664891 42.14664891 42.14664891 39.64252962 39.64252962 39.64252962]</t>
+          <t>[25.55215965 25.55215965 25.55215965 52.23194036 52.23194036 52.23194036
+ 48.87922618 48.87922618 48.87922618 45.37387745 45.37387745 45.37387745
+ 42.14654808 42.14654808 42.14654808 39.64224195 39.64224195 39.64224195]</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -6040,10 +6040,10 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>[ 51.10438879  51.10438879  51.10438879 104.464226   104.464226
- 104.464226    97.75843935  97.75843935  97.75843935  90.747359
-  90.747359    90.747359    84.29329781  84.29329781  84.29329781
-  79.28505924  79.28505924  79.28505924]</t>
+          <t>[ 51.1043193   51.1043193   51.1043193  104.46388071 104.46388071
+ 104.46388071  97.75845236  97.75845236  97.75845236  90.74775489
+  90.74775489  90.74775489  84.29309615  84.29309615  84.29309615
+  79.28448391  79.28448391  79.28448391]</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -6238,8 +6238,8 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>[2.61871331 2.61871331 2.61871331 1.3739177  1.3739177  1.3739177
- 0.49350229 0.49350229 0.49350229 0.39473385 0.33826708 0.28180031]</t>
+          <t>[2.61870583 2.61870583 2.61870583 1.37390206 1.37390206 1.37390206
+ 0.49349991 0.49349991 0.49349991 0.39472935 0.33824809 0.28176684]</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -6262,8 +6262,8 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>[1.49133225 1.49133225 1.49133225 0.78108304 0.78108304 0.78108304
- 0.28022907 0.28022907 0.28022907 0.22413271 0.1920896  0.16004654]</t>
+          <t>[1.49132797 1.49132797 1.49132797 0.78107414 0.78107414 0.78107414
+ 0.28022772 0.28022772 0.28022772 0.22413015 0.19207883 0.16002755]</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -6286,8 +6286,8 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[1.49133225 1.49133225 1.49133225 0.78108304 0.78108304 0.78108304
- 0.28022907 0.28022907 0.28022907 0.22413271 0.1920896  0.16004654]</t>
+          <t>[1.49132797 1.49132797 1.49132797 0.78107414 0.78107414 0.78107414
+ 0.28022772 0.28022772 0.28022772 0.22413015 0.19207883 0.16002755]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6310,8 +6310,8 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[32.22390218 32.22390218 32.22390218 17.0335839  17.0335839  17.0335839
-  6.15066589  6.15066589  6.15066589  4.28662487  2.69762671  1.55965132]</t>
+          <t>[32.22381162 32.22381162 32.22381162 17.03339169 17.03339169 17.03339169
+  6.15063629  6.15063629  6.15063629  4.28642258  2.69713753  1.55907546]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -6334,8 +6334,8 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[32.22390218 32.22390218 32.22390218 17.0335839  17.0335839  17.0335839
-  6.15066589  6.15066589  6.15066589  4.28662487  2.69762671  1.55965132]</t>
+          <t>[32.22381162 32.22381162 32.22381162 17.03339169 17.03339169 17.03339169
+  6.15063629  6.15063629  6.15063629  4.28642258  2.69713753  1.55907546]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6358,8 +6358,8 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[64.44780437 64.44780437 64.44780437 34.06716779 34.06716779 34.06716779
- 12.30133178 12.30133178 12.30133178  8.57324974  5.39525342  3.11930265]</t>
+          <t>[64.44762323 64.44762323 64.44762323 34.06678338 34.06678338 34.06678338
+ 12.30127258 12.30127258 12.30127258  8.57284516  5.39427506  3.11815093]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -6454,8 +6454,8 @@
       <c r="D256" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.         10.         10.         10.          8.66666667  7.33333333
-  6.        ]</t>
+ 10.         10.         10.         10.          8.66633333  7.33266667
+  5.999     ]</t>
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
@@ -6478,8 +6478,8 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>[0.07851955 0.07851955 0.07851955 0.04104054 0.04104054 0.04104054
- 0.01470261 0.01470261 0.01470261 0.01259855 0.01259855 0.01259855]</t>
+          <t>[0.07851933 0.07851933 0.07851933 0.04104007 0.04104007 0.04104007
+ 0.01470254 0.01470254 0.01470254 0.01259863 0.01259863 0.01259863]</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -6586,7 +6586,7 @@
         <is>
           <t>[[ 2.91197623e+06]
  [-3.35507584e+03]
- [-2.13286304e+07]]</t>
+ [-2.13284974e+07]]</t>
         </is>
       </c>
       <c r="E261" t="inlineStr"/>
@@ -6609,8 +6609,8 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[[-1.81539164e+05]
- [ 4.26130976e+08]
+          <t>[[-1.81539668e+05]
+ [ 4.26131000e+08]
  [ 6.48957511e+06]]</t>
         </is>
       </c>
@@ -6634,8 +6634,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>[1249999.99999991 1249999.99999991 2499999.99999982       0.
-       0.               0.        ]</t>
+          <t>[1250000. 1250000. 2500000.       0.       0.       0.]</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
@@ -6727,7 +6726,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>[2472905.80476494]</t>
+          <t>[2472892.51684965]</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -6750,7 +6749,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>[-2.56537208e+00 -3.31208415e-02  9.50633382e+01]</t>
+          <t>[-2.56538586e+00 -3.31210194e-02  9.50634099e+01]</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -6773,7 +6772,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>[3.17506352e+10 3.16062109e+10 2.89259248e+08 2.02613158e+02
+          <t>[3.17505190e+10 3.16060948e+10 2.89258840e+08 2.02613158e+02
  1.08611945e+07 1.44041114e+05]</t>
         </is>
       </c>
@@ -6882,16 +6881,16 @@
           <t>[[     0.        ]
  [     0.        ]
  [     0.        ]
- [-39780.22436065]
- [-40357.70972735]
- [-42109.65455504]
- [-45095.48338686]
- [-49417.69395572]
- [-55228.0285286 ]
- [-62738.35165421]
- [-72239.16932525]
- [-84130.76656791]
- [-98975.2795454 ]
+ [-39780.22436066]
+ [-40357.70972737]
+ [-42109.65455506]
+ [-45095.48338688]
+ [-49417.69395582]
+ [-55228.02852878]
+ [-62738.3516545 ]
+ [-72239.16932548]
+ [-84130.76656805]
+ [-98975.27954542]
  [     0.        ]
  [     0.        ]
  [     0.        ]
@@ -7000,9 +6999,9 @@
  [-1526.70959183]
  [-1561.06149957]
  [-1593.43543744]
- [-1387.34045863]
- [-1189.05983894]
- [ -992.78218559]]</t>
+ [-1387.28433325]
+ [-1188.95291972]
+ [ -992.62302317]]</t>
         </is>
       </c>
       <c r="E275" t="inlineStr"/>
@@ -7025,24 +7024,24 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>[[-40596880.92019818]
- [-39013810.15813801]
- [-37233827.30151691]
- [-36008320.73475144]
- [-34778970.60905722]
- [-33541803.15730435]
- [-32364516.82937503]
- [-31170511.81223441]
- [-29954527.71259812]
- [-28785419.56974898]
- [-27581013.95709726]
- [-26332493.76461402]
- [-25291537.89759362]
- [-24413891.24227541]
- [-23536244.58695756]
- [-23124016.0446719 ]
- [-22711787.50238615]
- [-22299558.96010034]]</t>
+          <t>[[-40596731.20621138]
+ [-39013662.55097988]
+ [-37233681.80118743]
+ [-36008178.93733328]
+ [-34778832.51455013]
+ [-33541668.76570825]
+ [-32364382.31009251]
+ [-31170377.16526508]
+ [-29954392.93794282]
+ [-28785280.58143637]
+ [-27580870.75512745]
+ [-26332346.34898758]
+ [-25291392.65263879]
+ [-24413748.16799246]
+ [-23536103.68334634]
+ [-23123878.20553865]
+ [-22711652.72773111]
+ [-22299427.24992285]]</t>
         </is>
       </c>
       <c r="E276" t="inlineStr"/>
@@ -7065,24 +7064,24 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>[[ -3662449.71470035]
- [-11450962.94817136]
- [-14004963.43731537]
- [  2912683.54555915]
- [  2912788.70166799]
- [  2912895.41851017]
- [  2912949.4521092 ]
- [  2913063.75467921]
- [  2913183.90911853]
- [  2913235.69762963]
- [  2913375.76634188]
- [  2913530.21989798]
- [  2913440.77067488]
- [  2913224.34714092]
- [  2913298.48894411]
- [  2912623.69312219]
- [  2912641.55815412]
- [  2912659.20737654]]</t>
+          <t>[[ -3662444.94089899]
+ [-11450957.25926815]
+ [-14004966.65213128]
+ [  2912683.54413256]
+ [  2912788.70026313]
+ [  2912895.4171327 ]
+ [  2912949.45363142]
+ [  2913063.75620769]
+ [  2913183.9106577 ]
+ [  2913235.70325484]
+ [  2913375.77190149]
+ [  2913530.22536878]
+ [  2913440.76793169]
+ [  2913224.34434927]
+ [  2913298.48613746]
+ [  2912623.68865093]
+ [  2912641.55367525]
+ [  2912659.20289404]]</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7105,24 +7104,24 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>[[ -394.6990425 ]
- [-1520.24416023]
- [-3249.12462562]
- [-3355.02293262]
- [-3355.00833676]
- [-3354.9911946 ]
- [-3354.97738812]
- [-3354.95424981]
- [-3354.92758912]
- [-3354.90749852]
- [-3354.87152572]
- [-3354.82954601]
- [-3354.82541595]
- [-3354.84518237]
- [-3354.81303628]
- [-3354.94054186]
- [-3354.93179183]
- [-3354.92280069]]</t>
+          <t>[[ -394.69921549]
+ [-1520.24544791]
+ [-3249.12728142]
+ [-3355.02293261]
+ [-3355.00833672]
+ [-3354.99119454]
+ [-3354.97738773]
+ [-3354.9542494 ]
+ [-3354.92758868]
+ [-3354.9074975 ]
+ [-3354.87152469]
+ [-3354.82954498]
+ [-3354.82541636]
+ [-3354.84518278]
+ [-3354.81303668]
+ [-3354.94054272]
+ [-3354.93179268]
+ [-3354.92280154]]</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7145,24 +7144,24 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>[[  -1931.07485869]
- [ -16316.04658301]
- [ -55263.58933739]
- [ -73667.88481149]
- [ -84838.29442972]
- [ -96006.01513934]
- [-107170.88943146]
- [-118332.47764682]
- [-129490.6846297 ]
- [-140645.44429613]
- [-151796.3714046 ]
- [-162943.53833397]
- [-174087.03086877]
- [-185226.3023118 ]
- [-196361.15202109]
- [-201927.18753368]
- [-207492.04595777]
- [-213055.73331589]]</t>
+          <t>[[  -1931.07795221]
+ [ -16316.07104441]
+ [ -55263.66471852]
+ [ -73667.98250665]
+ [ -84838.3921303 ]
+ [ -96006.11284409]
+ [-107170.98713904]
+ [-118332.57537323]
+ [-129490.78239303]
+ [-140645.54211826]
+ [-151796.46933453]
+ [-162943.6364243 ]
+ [-174087.12916975]
+ [-185226.40083706]
+ [-196361.25078562]
+ [-201927.28642394]
+ [-207492.14496805]
+ [-213055.83244043]]</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7185,24 +7184,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>[[3.23365506e+07]
- [1.97402889e+08]
- [4.54297960e+08]
- [5.26357558e+08]
- [5.16492371e+08]
- [5.06613490e+08]
- [4.96721926e+08]
- [4.86818580e+08]
- [4.76905244e+08]
- [4.66982982e+08]
- [4.57052678e+08]
- [4.47116298e+08]
- [4.37175231e+08]
- [4.27228855e+08]
- [4.17277054e+08]
- [4.12300519e+08]
- [4.07322820e+08]
- [4.02344097e+08]]</t>
+          <t>[[3.23364940e+07]
+ [1.97402721e+08]
+ [4.54297851e+08]
+ [5.26357514e+08]
+ [5.16492328e+08]
+ [5.06613448e+08]
+ [4.96721884e+08]
+ [4.86818538e+08]
+ [4.76905203e+08]
+ [4.66982942e+08]
+ [4.57052639e+08]
+ [4.47116260e+08]
+ [4.37175195e+08]
+ [4.27228819e+08]
+ [4.17277020e+08]
+ [4.12300486e+08]
+ [4.07322787e+08]
+ [4.02344065e+08]]</t>
         </is>
       </c>
       <c r="E280" t="inlineStr"/>
@@ -7225,24 +7224,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>[[ 978443.02316678]
- [2182264.27709308]
- [3888770.48844431]
- [6490285.79516319]
- [6490262.40134529]
- [6490238.93432673]
- [6490260.41689161]
- [6490236.36080705]
- [6490211.96328327]
- [6490235.58615588]
- [6490209.80563315]
- [6490183.24696436]
- [6490201.20063834]
- [6490176.44821831]
- [6490155.57920109]
- [6490170.81604749]
- [6490160.38154024]
- [6490149.94706646]]</t>
+          <t>[[ 978442.42642235]
+ [2182263.25219865]
+ [3888769.48190549]
+ [6490285.79483912]
+ [6490262.40101115]
+ [6490238.93398225]
+ [6490260.41407819]
+ [6490236.35799339]
+ [6490211.96046942]
+ [6490235.58025671]
+ [6490209.79975532]
+ [6490183.2411114 ]
+ [6490201.19865076]
+ [6490176.44622235]
+ [6490155.57720615]
+ [6490170.81693992]
+ [6490160.38243208]
+ [6490149.94795783]]</t>
         </is>
       </c>
       <c r="E281" t="inlineStr"/>
@@ -7298,8 +7297,8 @@
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
- 10.         10.         10.         10.          8.66666667  7.33333333
-  6.        ]</t>
+ 10.         10.         10.         10.          8.66633333  7.33266667
+  5.999     ]</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -7322,11 +7321,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>[0.06195332 0.06195332 0.06195332 0.12923095 0.12923095 0.12923095
- 0.12062215 0.12062215 0.12062215 0.11166989 0.11166989 0.11166989
- 0.10347212 0.10347212 0.10347212 0.09713905 0.09713905 0.09713905
- 0.07851955 0.07851955 0.07851955 0.04104054 0.04104054 0.04104054
- 0.01470261 0.01470261 0.01470261 0.01259855 0.01259855 0.01259855]</t>
+          <t>[0.06195323 0.06195323 0.06195323 0.1292305  0.1292305  0.1292305
+ 0.12062217 0.12062217 0.12062217 0.11167039 0.11167039 0.11167039
+ 0.10347187 0.10347187 0.10347187 0.09713833 0.09713833 0.09713833
+ 0.07851933 0.07851933 0.07851933 0.04104007 0.04104007 0.04104007
+ 0.01470254 0.01470254 0.01470254 0.01259863 0.01259863 0.01259863]</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -7474,11 +7473,11 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>[2.06966115 2.06966115 2.06966115 4.28796434 4.28796434 4.28796434
- 4.00580979 4.00580979 4.00580979 3.71186942 3.71186942 3.71186942
- 3.44222979 3.44222979 3.44222979 3.23361417 3.23361417 3.23361417
- 2.61871331 2.61871331 2.61871331 1.3739177  1.3739177  1.3739177
- 0.49350229 0.49350229 0.49350229 0.39473385 0.33826708 0.28180031]</t>
+          <t>[2.0696583  2.0696583  2.0696583  4.28794979 4.28794979 4.28794979
+ 4.00581033 4.00581033 4.00581033 3.71188598 3.71188598 3.71188598
+ 3.44222138 3.44222138 3.44222138 3.23359023 3.23359023 3.23359023
+ 2.61870583 2.61870583 2.61870583 1.37390206 1.37390206 1.37390206
+ 0.49349991 0.49349991 0.49349991 0.39472935 0.33824809 0.28176684]</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -7501,11 +7500,11 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>[1.17774488 1.17774488 1.17774488 2.44788253 2.44788253 2.44788253
- 2.28585096 2.28585096 2.28585096 2.11720314 2.11720314 2.11720314
- 1.96263241 1.96263241 1.96263241 1.84313093 1.84313093 1.84313093
- 1.49133225 1.49133225 1.49133225 0.78108304 0.78108304 0.78108304
- 0.28022907 0.28022907 0.28022907 0.22413271 0.1920896  0.16004654]</t>
+          <t>[1.17774326 1.17774326 1.17774326 2.44787417 2.44787417 2.44787417
+ 2.28585128 2.28585128 2.28585128 2.11721264 2.11721264 2.11721264
+ 1.96262759 1.96262759 1.96262759 1.84311723 1.84311723 1.84311723
+ 1.49132797 1.49132797 1.49132797 0.78107414 0.78107414 0.78107414
+ 0.28022772 0.28022772 0.28022772 0.22413015 0.19207883 0.16002755]</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -7528,11 +7527,11 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>[1.17774488 1.17774488 1.17774488 2.44788253 2.44788253 2.44788253
- 2.28585096 2.28585096 2.28585096 2.11720314 2.11720314 2.11720314
- 1.96263241 1.96263241 1.96263241 1.84313093 1.84313093 1.84313093
- 1.49133225 1.49133225 1.49133225 0.78108304 0.78108304 0.78108304
- 0.28022907 0.28022907 0.28022907 0.22413271 0.1920896  0.16004654]</t>
+          <t>[1.17774326 1.17774326 1.17774326 2.44787417 2.44787417 2.44787417
+ 2.28585128 2.28585128 2.28585128 2.11721264 2.11721264 2.11721264
+ 1.96262759 1.96262759 1.96262759 1.84311723 1.84311723 1.84311723
+ 1.49132797 1.49132797 1.49132797 0.78107414 0.78107414 0.78107414
+ 0.28022772 0.28022772 0.28022772 0.22413015 0.19207883 0.16002755]</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -7555,11 +7554,11 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>[25.5521944  25.5521944  25.5521944  52.232113   52.232113   52.232113
- 48.87921968 48.87921968 48.87921968 45.3736795  45.3736795  45.3736795
- 42.14664891 42.14664891 42.14664891 39.64252962 39.64252962 39.64252962
- 32.22390218 32.22390218 32.22390218 17.0335839  17.0335839  17.0335839
-  6.15066589  6.15066589  6.15066589  4.28662487  2.69762671  1.55965132]</t>
+          <t>[25.55215965 25.55215965 25.55215965 52.23194036 52.23194036 52.23194036
+ 48.87922618 48.87922618 48.87922618 45.37387745 45.37387745 45.37387745
+ 42.14654808 42.14654808 42.14654808 39.64224195 39.64224195 39.64224195
+ 32.22381162 32.22381162 32.22381162 17.03339169 17.03339169 17.03339169
+  6.15063629  6.15063629  6.15063629  4.28642258  2.69713753  1.55907546]</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -7582,11 +7581,11 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>[25.5521944  25.5521944  25.5521944  52.232113   52.232113   52.232113
- 48.87921968 48.87921968 48.87921968 45.3736795  45.3736795  45.3736795
- 42.14664891 42.14664891 42.14664891 39.64252962 39.64252962 39.64252962
- 32.22390218 32.22390218 32.22390218 17.0335839  17.0335839  17.0335839
-  6.15066589  6.15066589  6.15066589  4.28662487  2.69762671  1.55965132]</t>
+          <t>[25.55215965 25.55215965 25.55215965 52.23194036 52.23194036 52.23194036
+ 48.87922618 48.87922618 48.87922618 45.37387745 45.37387745 45.37387745
+ 42.14654808 42.14654808 42.14654808 39.64224195 39.64224195 39.64224195
+ 32.22381162 32.22381162 32.22381162 17.03339169 17.03339169 17.03339169
+  6.15063629  6.15063629  6.15063629  4.28642258  2.69713753  1.55907546]</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -7609,12 +7608,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>[ 51.10438879  51.10438879  51.10438879 104.464226   104.464226
- 104.464226    97.75843935  97.75843935  97.75843935  90.747359
-  90.747359    90.747359    84.29329781  84.29329781  84.29329781
-  79.28505924  79.28505924  79.28505924  64.44780437  64.44780437
-  64.44780437  34.06716779  34.06716779  34.06716779  12.30133178
-  12.30133178  12.30133178   8.57324974   5.39525342   3.11930265]</t>
+          <t>[ 51.1043193   51.1043193   51.1043193  104.46388071 104.46388071
+ 104.46388071  97.75845236  97.75845236  97.75845236  90.74775489
+  90.74775489  90.74775489  84.29309615  84.29309615  84.29309615
+  79.28448391  79.28448391  79.28448391  64.44762323  64.44762323
+  64.44762323  34.06678338  34.06678338  34.06678338  12.30127258
+  12.30127258  12.30127258   8.57284516   5.39427506   3.11815093]</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -7637,36 +7636,36 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>[[-4.05968809e+07]
- [-3.90138102e+07]
- [-3.72338273e+07]
- [-3.60083207e+07]
- [-3.47789706e+07]
- [-3.35418032e+07]
- [-3.23645168e+07]
- [-3.11705118e+07]
- [-2.99545277e+07]
- [-2.87854196e+07]
- [-2.75810140e+07]
- [-2.63324938e+07]
- [-2.52915379e+07]
- [-2.44138912e+07]
- [-2.35362446e+07]
- [-2.31240160e+07]
- [-2.27117875e+07]
- [-2.22995590e+07]
- [-1.88954485e+07]
- [-1.64655768e+07]
- [-1.40342532e+07]
- [-1.22013246e+07]
- [-1.03669126e+07]
- [-8.53103658e+06]
- [-8.12554886e+06]
- [-7.71952822e+06]
- [-7.31314390e+06]
- [-7.00648946e+06]
- [-6.74237533e+06]
- [ 4.91854735e-09]]</t>
+          <t>[[-4.05967312e+07]
+ [-3.90136626e+07]
+ [-3.72336818e+07]
+ [-3.60081789e+07]
+ [-3.47788325e+07]
+ [-3.35416688e+07]
+ [-3.23643823e+07]
+ [-3.11703772e+07]
+ [-2.99543929e+07]
+ [-2.87852806e+07]
+ [-2.75808708e+07]
+ [-2.63323463e+07]
+ [-2.52913927e+07]
+ [-2.44137482e+07]
+ [-2.35361037e+07]
+ [-2.31238782e+07]
+ [-2.27116527e+07]
+ [-2.22994272e+07]
+ [-1.88953240e+07]
+ [-1.64654594e+07]
+ [-1.40341430e+07]
+ [-1.22012349e+07]
+ [-1.03668433e+07]
+ [-8.53098781e+06]
+ [-8.12550197e+06]
+ [-7.71948321e+06]
+ [-7.31310077e+06]
+ [-7.00644966e+06]
+ [-6.74234984e+06]
+ [-8.65838956e-09]]</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -7689,36 +7688,36 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>[[-3.66244971e+06]
- [-1.14509629e+07]
- [-1.40049634e+07]
- [ 2.91268355e+06]
+          <t>[[-3.66244494e+06]
+ [-1.14509573e+07]
+ [-1.40049667e+07]
+ [ 2.91268354e+06]
  [ 2.91278870e+06]
  [ 2.91289542e+06]
  [ 2.91294945e+06]
- [ 2.91306375e+06]
+ [ 2.91306376e+06]
  [ 2.91318391e+06]
  [ 2.91323570e+06]
  [ 2.91337577e+06]
- [ 2.91353022e+06]
+ [ 2.91353023e+06]
  [ 2.91344077e+06]
- [ 2.91322435e+06]
+ [ 2.91322434e+06]
  [ 2.91329849e+06]
  [ 2.91262369e+06]
- [ 2.91264156e+06]
- [ 2.91265921e+06]
- [ 2.91648866e+06]
- [ 2.91733699e+06]
- [ 2.91809198e+06]
- [ 2.91751353e+06]
- [ 2.91864276e+06]
- [ 2.91953355e+06]
+ [ 2.91264155e+06]
+ [ 2.91265920e+06]
+ [ 2.91648865e+06]
+ [ 2.91733698e+06]
+ [ 2.91809197e+06]
+ [ 2.91751349e+06]
+ [ 2.91864271e+06]
+ [ 2.91953350e+06]
  [ 2.91385253e+06]
  [ 2.91403952e+06]
  [ 2.91417285e+06]
  [ 2.91370668e+06]
- [ 2.91350111e+06]
- [ 1.24907369e+03]]</t>
+ [ 2.91350104e+06]
+ [ 1.24893896e+03]]</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -7741,36 +7740,36 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[[ -394.6990425 ]
- [-1520.24416023]
- [-3249.12462562]
- [-3355.02293262]
- [-3355.00833676]
- [-3354.9911946 ]
- [-3354.97738812]
- [-3354.95424981]
- [-3354.92758912]
- [-3354.90749852]
- [-3354.87152572]
- [-3354.82954601]
- [-3354.82541595]
- [-3354.84518237]
- [-3354.81303628]
- [-3354.94054186]
- [-3354.93179183]
- [-3354.92280069]
- [-3353.89984101]
- [-3353.31950169]
- [-3352.65010598]
- [-3352.17867789]
- [-3350.3623595 ]
- [-3348.27912509]
- [-3352.90505035]
- [-3351.983186  ]
- [-3351.00366807]
- [-3351.09446808]
- [-3350.41633537]
- [    4.56067559]]</t>
+          <t>[[ -394.69921549]
+ [-1520.24544791]
+ [-3249.12728142]
+ [-3355.02293261]
+ [-3355.00833672]
+ [-3354.99119454]
+ [-3354.97738773]
+ [-3354.9542494 ]
+ [-3354.92758868]
+ [-3354.9074975 ]
+ [-3354.87152469]
+ [-3354.82954498]
+ [-3354.82541636]
+ [-3354.84518278]
+ [-3354.81303668]
+ [-3354.94054272]
+ [-3354.93179268]
+ [-3354.92280154]
+ [-3353.89984165]
+ [-3353.31950216]
+ [-3352.65010629]
+ [-3352.17869524]
+ [-3350.36237608]
+ [-3348.27914083]
+ [-3352.90504211]
+ [-3351.98317741]
+ [-3351.00365912]
+ [-3351.09446349]
+ [-3350.41638514]
+ [    4.56043695]]</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -7793,36 +7792,36 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>[[-1.93107486e+03]
- [-1.63160466e+04]
- [-5.52635893e+04]
- [-7.36678848e+04]
- [-8.48382944e+04]
- [-9.60060151e+04]
- [-1.07170889e+05]
- [-1.18332478e+05]
- [-1.29490685e+05]
- [-1.40645444e+05]
- [-1.51796371e+05]
- [-1.62943538e+05]
- [-1.74087031e+05]
- [-1.85226302e+05]
- [-1.96361152e+05]
- [-2.01927188e+05]
- [-2.07492046e+05]
- [-2.13055733e+05]
- [-2.53306490e+05]
- [-2.93476996e+05]
- [-3.33580647e+05]
- [-3.90674371e+05]
- [-4.47450594e+05]
- [-5.03984476e+05]
- [-5.37751450e+05]
- [-5.71185436e+05]
- [-6.04299575e+05]
- [-6.34866443e+05]
- [-6.64883718e+05]
- [-1.15149827e-04]]</t>
+          <t>[[-1.93107795e+03]
+ [-1.63160710e+04]
+ [-5.52636647e+04]
+ [-7.36679825e+04]
+ [-8.48383921e+04]
+ [-9.60061128e+04]
+ [-1.07170987e+05]
+ [-1.18332575e+05]
+ [-1.29490782e+05]
+ [-1.40645542e+05]
+ [-1.51796469e+05]
+ [-1.62943636e+05]
+ [-1.74087129e+05]
+ [-1.85226401e+05]
+ [-1.96361251e+05]
+ [-2.01927286e+05]
+ [-2.07492145e+05]
+ [-2.13055832e+05]
+ [-2.53306590e+05]
+ [-2.93477097e+05]
+ [-3.33580750e+05]
+ [-3.90674476e+05]
+ [-4.47450699e+05]
+ [-5.03984578e+05]
+ [-5.37751550e+05]
+ [-5.71185533e+05]
+ [-6.04299671e+05]
+ [-6.34866528e+05]
+ [-6.64883714e+05]
+ [-1.15172596e-04]]</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
@@ -7845,36 +7844,36 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>[[ 3.23365506e+07]
- [ 1.97402889e+08]
- [ 4.54297960e+08]
- [ 5.26357558e+08]
- [ 5.16492371e+08]
- [ 5.06613490e+08]
- [ 4.96721926e+08]
- [ 4.86818580e+08]
- [ 4.76905244e+08]
- [ 4.66982982e+08]
- [ 4.57052678e+08]
- [ 4.47116298e+08]
- [ 4.37175231e+08]
- [ 4.27228855e+08]
- [ 4.17277054e+08]
- [ 4.12300519e+08]
- [ 4.07322820e+08]
- [ 4.02344097e+08]
- [ 3.66234554e+08]
- [ 3.30076599e+08]
- [ 2.93925180e+08]
- [ 2.42247963e+08]
- [ 1.90502238e+08]
- [ 1.38813991e+08]
- [ 1.07866526e+08]
- [ 7.68824535e+07]
- [ 4.58894087e+07]
- [ 1.69714781e+07]
- [-1.19295151e+07]
- [ 3.15378413e-02]]</t>
+          <t>[[ 3.23364940e+07]
+ [ 1.97402721e+08]
+ [ 4.54297851e+08]
+ [ 5.26357514e+08]
+ [ 5.16492328e+08]
+ [ 5.06613448e+08]
+ [ 4.96721884e+08]
+ [ 4.86818538e+08]
+ [ 4.76905203e+08]
+ [ 4.66982942e+08]
+ [ 4.57052639e+08]
+ [ 4.47116260e+08]
+ [ 4.37175195e+08]
+ [ 4.27228819e+08]
+ [ 4.17277020e+08]
+ [ 4.12300486e+08]
+ [ 4.07322787e+08]
+ [ 4.02344065e+08]
+ [ 3.66234527e+08]
+ [ 3.30076577e+08]
+ [ 2.93925164e+08]
+ [ 2.42247954e+08]
+ [ 1.90502234e+08]
+ [ 1.38813990e+08]
+ [ 1.07866525e+08]
+ [ 7.68824526e+07]
+ [ 4.58894083e+07]
+ [ 1.69714775e+07]
+ [-1.19295177e+07]
+ [ 3.15410089e-02]]</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
@@ -7897,36 +7896,36 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>[[ 9.78443023e+05]
- [ 2.18226428e+06]
- [ 3.88877049e+06]
- [ 6.49028580e+06]
- [ 6.49026240e+06]
- [ 6.49023893e+06]
- [ 6.49026042e+06]
- [ 6.49023636e+06]
- [ 6.49021196e+06]
- [ 6.49023559e+06]
- [ 6.49020981e+06]
- [ 6.49018325e+06]
- [ 6.49020120e+06]
- [ 6.49017645e+06]
- [ 6.49015558e+06]
- [ 6.49017082e+06]
- [ 6.49016038e+06]
- [ 6.49014995e+06]
- [ 6.49024140e+06]
- [ 6.49016565e+06]
- [ 6.49008971e+06]
- [ 6.49041115e+06]
- [ 6.49030195e+06]
- [ 6.49019266e+06]
- [ 6.49099009e+06]
- [ 6.49092282e+06]
- [ 6.49085546e+06]
- [ 6.49109162e+06]
- [ 6.49127061e+06]
- [-2.77712829e-09]]</t>
+          <t>[[ 978442.42642235]
+ [2182263.25219865]
+ [3888769.48190549]
+ [6490285.79483912]
+ [6490262.40101115]
+ [6490238.93398225]
+ [6490260.41407819]
+ [6490236.35799339]
+ [6490211.96046942]
+ [6490235.58025671]
+ [6490209.79975532]
+ [6490183.2411114 ]
+ [6490201.19865076]
+ [6490176.44622235]
+ [6490155.57720615]
+ [6490170.81693992]
+ [6490160.38243208]
+ [6490149.94795783]
+ [6490241.40063996]
+ [6490165.65141697]
+ [6490089.70410439]
+ [6490411.15418793]
+ [6490301.95168675]
+ [6490192.66448393]
+ [6490990.08919011]
+ [6490922.81994532]
+ [6490855.46368583]
+ [6491091.62501607]
+ [6491270.69360971]
+ [      0.        ]]</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -8623,7 +8622,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>[3900451.65899932]</t>
+          <t>[3900416.58582955]</t>
         </is>
       </c>
       <c r="E330" t="inlineStr"/>
@@ -8646,7 +8645,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>[1490043.80476494]</t>
+          <t>[1490030.51684965]</t>
         </is>
       </c>
       <c r="E331" t="inlineStr"/>
@@ -8669,7 +8668,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>[4845451.65899932]</t>
+          <t>[4845416.58582955]</t>
         </is>
       </c>
       <c r="E332" t="inlineStr"/>
@@ -8692,7 +8691,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>[323.0301106]</t>
+          <t>[323.02777239]</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -8715,7 +8714,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>[1490043.80476494]</t>
+          <t>[1490030.51684965]</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
@@ -8784,7 +8783,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>[3900451.65899932]</t>
+          <t>[3900416.58582955]</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
@@ -8807,7 +8806,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>[3900451.65899932]</t>
+          <t>[3900416.58582955]</t>
         </is>
       </c>
       <c r="E338" t="inlineStr"/>
@@ -8832,7 +8831,7 @@
         <is>
           <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637369
  1422.65663273 1490.05546078 1526.70959183 1561.06149957 1593.43543744
- 1387.34045863 1189.05983894  992.78218559]</t>
+ 1387.28433325 1188.95291972  992.62302317]</t>
         </is>
       </c>
       <c r="E339" t="inlineStr"/>
@@ -9048,8 +9047,8 @@
       <c r="D348" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.         10.         10.         10.          8.66666667  7.33333333
-  6.        ]</t>
+ 10.         10.         10.         10.          8.66633333  7.33266667
+  5.999     ]</t>
         </is>
       </c>
       <c r="E348" t="inlineStr"/>
@@ -9145,7 +9144,7 @@
         <is>
           <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637369
  1422.65663273 1490.05546078 1526.70959183 1561.06149957 1593.43543744
- 1387.34045863 1189.05983894  992.78218559]</t>
+ 1387.28433325 1188.95291972  992.62302317]</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -9287,8 +9286,8 @@
         <is>
           <t>[ -927.99815941 -1070.12742489 -1170.96499657 -1251.15492825
  -1344.74637369 -1422.65663273 -1490.05546078 -1526.70959183
- -1561.06149957 -1593.43543744 -1387.34045863 -1189.05983894
-  -992.78218559]</t>
+ -1561.06149957 -1593.43543744 -1387.28433325 -1188.95291972
+  -992.62302317]</t>
         </is>
       </c>
       <c r="E358" t="inlineStr"/>
@@ -9336,7 +9335,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>[10. 10. 10. 10.  6.]</t>
+          <t>[10.    10.    10.    10.     5.999]</t>
         </is>
       </c>
       <c r="E360" t="inlineStr"/>
@@ -9359,7 +9358,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[0.07851955 0.04104054 0.01470261 0.01259855]</t>
+          <t>[0.07851933 0.04104007 0.01470254 0.01259863]</t>
         </is>
       </c>
       <c r="E361" t="inlineStr"/>
@@ -9424,7 +9423,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>[10. 10. 10. 10.  6.]</t>
+          <t>[10.    10.    10.    10.     5.999]</t>
         </is>
       </c>
       <c r="E364" t="inlineStr"/>
@@ -9447,7 +9446,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>[0.07851955 0.04104054 0.01470261 0.01259855]</t>
+          <t>[0.07851933 0.04104007 0.01470254 0.01259863]</t>
         </is>
       </c>
       <c r="E365" t="inlineStr"/>
@@ -9683,8 +9682,8 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>[0.07851955 0.07851955 0.07851955 0.04104054 0.04104054 0.04104054
- 0.01470261 0.01470261 0.01470261 0.01259855 0.01259855 0.01259855]</t>
+          <t>[0.07851933 0.07851933 0.07851933 0.04104007 0.04104007 0.04104007
+ 0.01470254 0.01470254 0.01470254 0.01259863 0.01259863 0.01259863]</t>
         </is>
       </c>
       <c r="E375" t="inlineStr"/>
@@ -9867,8 +9866,8 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>[2.61871331 2.61871331 2.61871331 1.3739177  1.3739177  1.3739177
- 0.49350229 0.49350229 0.49350229 0.39473385 0.33826708 0.28180031]</t>
+          <t>[2.61870583 2.61870583 2.61870583 1.37390206 1.37390206 1.37390206
+ 0.49349991 0.49349991 0.49349991 0.39472935 0.33824809 0.28176684]</t>
         </is>
       </c>
       <c r="E383" t="inlineStr"/>
@@ -9891,8 +9890,8 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>[1.49133225 1.49133225 1.49133225 0.78108304 0.78108304 0.78108304
- 0.28022907 0.28022907 0.28022907 0.22413271 0.1920896  0.16004654]</t>
+          <t>[1.49132797 1.49132797 1.49132797 0.78107414 0.78107414 0.78107414
+ 0.28022772 0.28022772 0.28022772 0.22413015 0.19207883 0.16002755]</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -9915,8 +9914,8 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>[1.49133225 1.49133225 1.49133225 0.78108304 0.78108304 0.78108304
- 0.28022907 0.28022907 0.28022907 0.22413271 0.1920896  0.16004654]</t>
+          <t>[1.49132797 1.49132797 1.49132797 0.78107414 0.78107414 0.78107414
+ 0.28022772 0.28022772 0.28022772 0.22413015 0.19207883 0.16002755]</t>
         </is>
       </c>
       <c r="E385" t="inlineStr"/>
@@ -9939,8 +9938,8 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>[32.22390218 32.22390218 32.22390218 17.0335839  17.0335839  17.0335839
-  6.15066589  6.15066589  6.15066589  4.28662487  2.69762671  1.55965132]</t>
+          <t>[32.22381162 32.22381162 32.22381162 17.03339169 17.03339169 17.03339169
+  6.15063629  6.15063629  6.15063629  4.28642258  2.69713753  1.55907546]</t>
         </is>
       </c>
       <c r="E386" t="inlineStr"/>
@@ -9963,8 +9962,8 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>[32.22390218 32.22390218 32.22390218 17.0335839  17.0335839  17.0335839
-  6.15066589  6.15066589  6.15066589  4.28662487  2.69762671  1.55965132]</t>
+          <t>[32.22381162 32.22381162 32.22381162 17.03339169 17.03339169 17.03339169
+  6.15063629  6.15063629  6.15063629  4.28642258  2.69713753  1.55907546]</t>
         </is>
       </c>
       <c r="E387" t="inlineStr"/>
@@ -9987,8 +9986,8 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>[64.44780437 64.44780437 64.44780437 34.06716779 34.06716779 34.06716779
- 12.30133178 12.30133178 12.30133178  8.57324974  5.39525342  3.11930265]</t>
+          <t>[64.44762323 64.44762323 64.44762323 34.06678338 34.06678338 34.06678338
+ 12.30127258 12.30127258 12.30127258  8.57284516  5.39427506  3.11815093]</t>
         </is>
       </c>
       <c r="E388" t="inlineStr"/>
@@ -10082,17 +10081,17 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>[[-18898758.61436533]
- [-16467435.04378113]
- [-14035029.77769971]
- [-12200617.75376912]
- [-10364741.76695885]
- [ -8527625.39947677]
- [ -8121604.75269121]
- [ -7715220.43575091]
- [ -7308494.36839803]
- [ -7002670.35884422]
- [ -6740489.24674488]
+          <t>[[-18898632.79936309]
+ [-16467316.3960412 ]
+ [-14034918.29722209]
+ [-12200526.75118382]
+ [-10364671.24226586]
+ [ -8527575.35267612]
+ [ -8121556.58853549]
+ [ -7715174.15424011]
+ [ -7308449.96953217]
+ [ -7002629.55770935]
+ [ -6740463.25916297]
  [ -6521904.15      ]]</t>
         </is>
       </c>
@@ -10116,18 +10115,18 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>[[2912477.94945145]
- [2913368.36493106]
- [2914178.82151509]
- [2914647.64122797]
- [2915900.07573135]
- [2916916.17574454]
- [2913313.58110531]
- [2913547.39372472]
- [2913728.84593033]
- [2913411.37722281]
- [2913293.74826054]
- [2913117.63746652]]</t>
+          <t>[[2912477.9494227 ]
+ [2913368.36486132]
+ [2914178.82141745]
+ [2914647.62552065]
+ [2915900.06036046]
+ [2916916.16069037]
+ [2913313.58551453]
+ [2913547.39822843]
+ [2913728.85051849]
+ [2913411.37346812]
+ [2913293.69609098]
+ [2913117.53185068]]</t>
         </is>
       </c>
       <c r="E393" t="inlineStr"/>
@@ -10150,18 +10149,18 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>[[-3354.8886536 ]
- [-3354.38299618]
- [-3353.78494067]
- [-3353.13135696]
- [-3351.4567481 ]
- [-3349.5148928 ]
- [-3353.21746765]
- [-3352.34758673]
- [-3351.41886296]
- [-3351.46049334]
- [-3350.81622026]
- [-3349.8206733 ]]</t>
+          <t>[[-3354.88865305]
+ [-3354.38299454]
+ [-3353.78493794]
+ [-3353.13136349]
+ [-3351.45675201]
+ [-3349.51489403]
+ [-3353.21745754]
+ [-3352.34757561]
+ [-3351.4188508 ]
+ [-3351.46048683]
+ [-3350.81626663]
+ [-3349.82062012]]</t>
         </is>
       </c>
       <c r="E394" t="inlineStr"/>
@@ -10184,18 +10183,18 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>[[-222000.1213977 ]
- [-262370.36134876]
- [-302659.63776342]
- [-360005.19098019]
- [-417033.21277742]
- [-473808.74949226]
- [-507713.38574218]
- [-541299.82751311]
- [-574579.16776414]
- [-605313.1213184 ]
- [-635519.79765777]
- [-664796.3428528 ]]</t>
+          <t>[[-222000.62462204]
+ [-262370.86474698]
+ [-302660.14161415]
+ [-360005.69490141]
+ [-417033.71452811]
+ [-473809.24678334]
+ [-507713.8796311 ]
+ [-541300.31826644]
+ [-574579.65571598]
+ [-605313.59731631]
+ [-635520.18726636]
+ [-664796.34329952]]</t>
         </is>
       </c>
       <c r="E395" t="inlineStr"/>
@@ -10218,17 +10217,17 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>[[ 3.90874210e+08]
- [ 3.55461496e+08]
- [ 3.19950026e+08]
- [ 2.69030270e+08]
- [ 2.17914536e+08]
- [ 1.66736910e+08]
- [ 1.36025001e+08]
- [ 1.05245599e+08]
- [ 7.44280184e+07]
- [ 4.56454843e+07]
- [ 1.68458911e+07]
+          <t>[[ 3.90874233e+08]
+ [ 3.55461520e+08]
+ [ 3.19950052e+08]
+ [ 2.69030298e+08]
+ [ 2.17914564e+08]
+ [ 1.66736937e+08]
+ [ 1.36025027e+08]
+ [ 1.05245623e+08]
+ [ 7.44280423e+07]
+ [ 4.56455063e+07]
+ [ 1.68459059e+07]
  [-1.19535913e+07]]</t>
         </is>
       </c>
@@ -10252,18 +10251,18 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>[[6490241.70612369]
- [6490165.75703074]
- [6490089.7643388 ]
- [6490411.19748203]
- [6490301.9066271 ]
- [6490192.532237  ]
- [6490989.52449027]
- [6490922.16686154]
- [6490854.75030081]
- [6491090.65232392]
- [6491269.68362726]
- [6491533.16137399]]</t>
+          <t>[[6490241.7039302 ]
+ [6490165.75483768]
+ [6490089.76214603]
+ [6490411.20038109]
+ [6490301.9094991 ]
+ [6490192.53508094]
+ [6490989.52306546]
+ [6490922.16542161]
+ [6490854.74884548]
+ [6491090.66035571]
+ [6491269.76889076]
+ [6491533.3864915 ]]</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -10447,9 +10446,9 @@
  [-1526.70959183]
  [-1561.06149957]
  [-1593.43543744]
- [-1387.34045863]
- [-1189.05983894]
- [ -992.78218559]]</t>
+ [-1387.28433325]
+ [-1188.95291972]
+ [ -992.62302317]]</t>
         </is>
       </c>
       <c r="E403" t="inlineStr"/>
@@ -10472,7 +10471,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>[1490043.80476494]</t>
+          <t>[1490030.51684965]</t>
         </is>
       </c>
       <c r="E404" t="inlineStr"/>
@@ -10495,7 +10494,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>[47.17024998]</t>
+          <t>[47.16994183]</t>
         </is>
       </c>
       <c r="E405" t="inlineStr"/>
@@ -10518,7 +10517,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>[5.23313070e+09 5.23313070e+09 3.62255316e+07 0.00000000e+00
+          <t>[5.23301457e+09 5.23301457e+09 3.62251238e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -10573,10 +10572,10 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         39780.22436065
- 40357.70972735 42109.65455504 45095.48338686 49417.69395572
- 55228.0285286  62738.35165421 72239.16932525 84130.76656791
- 98975.2795454      0.             0.             0.
+          <t>[    0.             0.             0.         39780.22436066
+ 40357.70972737 42109.65455506 45095.48338688 49417.69395582
+ 55228.02852878 62738.3516545  72239.16932548 84130.76656805
+ 98975.27954542     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -10827,10 +10826,10 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>[    0.             0.             0.         39780.22436065
- 40357.70972735 42109.65455504 45095.48338686 49417.69395572
- 55228.0285286  62738.35165421 72239.16932525 84130.76656791
- 98975.2795454      0.             0.             0.
+          <t>[    0.             0.             0.         39780.22436066
+ 40357.70972737 42109.65455506 45095.48338688 49417.69395582
+ 55228.02852878 62738.3516545  72239.16932548 84130.76656805
+ 98975.27954542     0.             0.             0.
      0.             0.             0.        ]</t>
         </is>
       </c>
@@ -11212,10 +11211,10 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.         -39780.22436065
- -40357.70972735 -42109.65455504 -45095.48338686 -49417.69395572
- -55228.0285286  -62738.35165421 -72239.16932525 -84130.76656791
- -98975.2795454       0.              0.              0.
+          <t>[     0.              0.              0.         -39780.22436066
+ -40357.70972737 -42109.65455506 -45095.48338688 -49417.69395582
+ -55228.02852878 -62738.3516545  -72239.16932548 -84130.76656805
+ -98975.27954542      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -11262,8 +11261,8 @@
       <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
-          <t>[161.41185747  77.38084643  82.90351086  89.5496551   96.64438873
- 102.94520729]</t>
+          <t>[161.41208113  77.38111256  82.90349942  89.54925084  96.64462737
+ 102.94597681]</t>
         </is>
       </c>
       <c r="E436" t="inlineStr"/>
@@ -11320,7 +11319,7 @@
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="inlineStr">
         <is>
-          <t>[2.08594071 0.93338443 0.92578258 0.92658929 0.93879444]</t>
+          <t>[2.08593642 0.93338777 0.92578663 0.92658281 0.93878975]</t>
         </is>
       </c>
       <c r="E439" t="inlineStr"/>
@@ -11433,7 +11432,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>[47366522.46570909]</t>
+          <t>[47366522.46576619]</t>
         </is>
       </c>
       <c r="E444" t="inlineStr"/>
@@ -11872,8 +11871,8 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>[16143.35697242 33446.12187736 31245.31634436 28952.58144685
- 26849.39238978 25222.19049701]</t>
+          <t>[16143.33474335 33446.00835328 31245.32060582 28952.7106746
+ 26849.32678481 25222.00380856]</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -11900,8 +11899,8 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>[199307.11628134 407410.48141493 381257.91348028 353914.70008983
- 328743.86146674 309211.73105059]</t>
+          <t>[199306.84526126 407409.13477018 381257.9642104  353916.24408906
+ 328743.07499587 309209.48723858]</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -11928,8 +11927,8 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>[199307.11628134 407410.48141493 381257.91348028 353914.70008983
- 328743.86146674 309211.73105059]</t>
+          <t>[199306.84526126 407409.13477018 381257.9642104  353916.24408906
+ 328743.07499587 309209.48723858]</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -11956,8 +11955,8 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>[4.77611110e+12 9.76301178e+12 9.13630274e+12 8.48106159e+12
- 7.87787830e+12 7.40981862e+12]</t>
+          <t>[4.77610461e+12 9.76297951e+12 9.13630396e+12 8.48109859e+12
+ 7.87785945e+12 7.40976485e+12]</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -11984,8 +11983,8 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>[4.77611110e+12 9.76301178e+12 9.13630274e+12 8.48106159e+12
- 7.87787830e+12 7.40981862e+12]</t>
+          <t>[4.77610461e+12 9.76297951e+12 9.13630396e+12 8.48109859e+12
+ 7.87785945e+12 7.40976485e+12]</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12012,8 +12011,8 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>[3.78745610e+12 7.74206834e+12 7.24508808e+12 6.72548184e+12
- 6.24715749e+12 5.87598617e+12]</t>
+          <t>[3.78745095e+12 7.74204275e+12 7.24508904e+12 6.72551118e+12
+ 6.24714255e+12 5.87594353e+12]</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -12040,8 +12039,8 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>[3.86852551e+11 8.01488662e+11 7.48749493e+11 6.93807368e+11
- 6.43407438e+11 6.04413863e+11]</t>
+          <t>[3.86852019e+11 8.01485942e+11 7.48749595e+11 6.93810464e+11
+ 6.43405866e+11 6.04409389e+11]</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -12149,12 +12148,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.51699284 0.20937536 0.20937536 0.        ]
- [0.         0.         0.24953566 0.10242741 0.10242741 0.        ]
- [0.         0.         0.26711203 0.10945347 0.10945347 0.        ]
- [0.         0.         0.28826445 0.11790977 0.11790977 0.        ]
- [0.         0.         0.31084502 0.12693773 0.12693773 0.        ]
- [0.         0.         0.33089909 0.13495607 0.13495607 0.        ]]</t>
+          <t>[[0.         0.         0.51699355 0.20937565 0.20937565 0.        ]
+ [0.         0.         0.2495365  0.10242775 0.10242775 0.        ]
+ [0.         0.         0.267112   0.10945345 0.10945345 0.        ]
+ [0.         0.         0.28826316 0.11790925 0.11790925 0.        ]
+ [0.         0.         0.31084578 0.12693804 0.12693804 0.        ]
+ [0.         0.         0.33090154 0.13495705 0.13495705 0.        ]]</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
@@ -12177,12 +12176,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>[[0.84908032 0.84908032 0.         0.         0.         0.10468768]
- [0.40851634 0.40851634 0.         0.         0.         0.0512137 ]
- [0.43747384 0.43747384 0.         0.         0.         0.05472673]
- [0.47232123 0.47232123 0.         0.         0.         0.05895488]
- [0.50951976 0.50951976 0.         0.         0.         0.06346887]
- [0.54255505 0.54255505 0.         0.         0.         0.06747803]]</t>
+          <t>[[0.84908149 0.84908149 0.         0.         0.         0.10468782]
+ [0.40851773 0.40851773 0.         0.         0.         0.05121387]
+ [0.43747378 0.43747378 0.         0.         0.         0.05472673]
+ [0.47231911 0.47231911 0.         0.         0.         0.05895463]
+ [0.50952101 0.50952101 0.         0.         0.         0.06346902]
+ [0.54255909 0.54255909 0.         0.         0.         0.06747852]]</t>
         </is>
       </c>
       <c r="E474" t="inlineStr"/>
@@ -12205,7 +12204,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>[1184.5114686]</t>
+          <t>[1184.51088768]</t>
         </is>
       </c>
       <c r="E475" t="inlineStr"/>
@@ -12228,7 +12227,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>[4359413.29981731]</t>
+          <t>[4359408.77471279]</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
@@ -12251,7 +12250,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>[1815345.782241]</t>
+          <t>[1815343.72552836]</t>
         </is>
       </c>
       <c r="E477" t="inlineStr"/>
@@ -12274,7 +12273,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>[41.61747877]</t>
+          <t>[41.61747796]</t>
         </is>
       </c>
       <c r="E478" t="inlineStr"/>
@@ -12297,7 +12296,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>[3.89333836e+09 3.89333836e+09 4.44770834e+07 0.00000000e+00
+          <t>[3.89333306e+09 3.89333306e+09 4.44770339e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12344,9 +12343,9 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>[0.06629005 0.06629005 0.06629005 0.13827711 0.13827711 0.13827711
- 0.1290657  0.1290657  0.1290657  0.11948678 0.11948678 0.11948678
- 0.11071517 0.11071517 0.11071517 0.10393879 0.10393879 0.10393879]</t>
+          <t>[0.06628996 0.06628996 0.06628996 0.13827664 0.13827664 0.13827664
+ 0.12906572 0.12906572 0.12906572 0.11948732 0.11948732 0.11948732
+ 0.1107149  0.1107149  0.1107149  0.10393801 0.10393801 0.10393801]</t>
         </is>
       </c>
       <c r="E481" t="inlineStr"/>
@@ -12394,7 +12393,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>[1915345.782241]</t>
+          <t>[1915343.72552836]</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -12417,7 +12416,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>[4859413.29981731]</t>
+          <t>[4859408.77471279]</t>
         </is>
       </c>
       <c r="E484" t="inlineStr"/>
@@ -12440,7 +12439,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>[43.36037666]</t>
+          <t>[43.36037777]</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -12463,7 +12462,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>[4.45708836e+09 4.45708836e+09 4.69770834e+07 0.00000000e+00
+          <t>[4.45708306e+09 4.45708306e+09 4.69770339e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -12487,7 +12486,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>[3405389.58700594]</t>
+          <t>[3405374.24237801]</t>
         </is>
       </c>
       <c r="E487" t="inlineStr"/>
@@ -12510,7 +12509,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>[8759864.95881663]</t>
+          <t>[8759825.36054233]</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -12583,7 +12582,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>[0.22127097]</t>
+          <t>[0.22127099]</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -12606,7 +12605,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>[0.22       0.22127097 0.94951902 0.96886614 1.03789229 1.797497  ]</t>
+          <t>[0.22       0.22127099 0.94950445 0.96884316 1.03788281 1.79744112]</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
@@ -12629,7 +12628,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>[0.22127097 1.03789229 1.98784167]</t>
+          <t>[0.22127099 1.03788281 1.98777289]</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
@@ -12652,7 +12651,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>[0.22       0.94951902 1.797497  ]</t>
+          <t>[0.22       0.94950445 1.79744112]</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
@@ -12675,7 +12674,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>[4.31831772 0.         0.        ]</t>
+          <t>[4.31830867 0.         0.        ]</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
@@ -12694,9 +12693,9 @@
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>[[ 1.01388683 -0.20506574 -0.12903067  0.88413897 -0.56392938]
- [-2.7654002   3.20270929 -0.6855814   2.15268205 -0.90440973]
- [-5.11818487  9.9005908   5.96398141 -3.73688014 -6.00950719]]</t>
+          <t>[[ 1.01388043 -0.20507455 -0.12897126  0.8840547  -0.56388932]
+ [-2.76538096  3.20254801 -0.68488941  2.15139427 -0.90367191]
+ [-5.11809864  9.90068244  5.95948104 -3.72854934 -6.0135155 ]]</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
@@ -12715,9 +12714,9 @@
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>[[ 1.00519972 -0.20004723 -0.12693833  0.87215106 -0.55036522]
- [-2.78060446  3.01145256 -0.57137535  1.37368386 -0.03315661]
- [-4.33972855  7.76458348  2.46428327  1.88002026 -6.76915846]]</t>
+          <t>[[ 1.00519301 -0.2000567  -0.12687358  0.87205702 -0.55031975]
+ [-2.78058646  3.01124087 -0.57040403  1.37186936 -0.03211973]
+ [-4.33964518  7.7646089   2.46130423  1.88526926 -6.77153722]]</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
@@ -12736,7 +12735,7 @@
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
-          <t>[[ -2.49910505  15.61980852 -43.79531275  56.39715001 -24.72254074]
+          <t>[[ -2.49902901  15.61927036 -43.79361424  56.39485197 -24.72147908]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -12757,9 +12756,9 @@
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>[[  0.73689297   1.4138991   -3.56514591   4.15415769  -1.73980385]
- [ -0.31711516   2.91194941  -5.98735294   7.40088992  -3.00837123]
- [  1.92485652  -1.26923301   9.32204873 -11.3030381    2.32536586]]</t>
+          <t>[[  0.7368856    1.41388851  -3.56505588   4.15401467  -1.73973289]
+ [ -0.31710249   2.91170027  -5.9865732    7.39984999  -3.00787458]
+ [  1.92442642  -1.26713685   9.31554767 -11.29460623   2.32176899]]</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
@@ -12778,9 +12777,9 @@
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>[[ 0.72551797  1.43333884 -3.61111088  4.20494278 -1.75268871]
- [-0.42093761  3.13657872 -6.72568998  8.15505717 -3.1450083 ]
- [ 1.19826812 -0.0734149   4.73862679 -5.12554155  0.26206153]]</t>
+          <t>[[ 0.72551101  1.43332196 -3.61100176  4.2047755  -1.75260671]
+ [-0.42091612  3.1362188  -6.72458224  8.15359483 -3.14431527]
+ [ 1.19797717 -0.07193552  4.73407876 -5.11977902  0.25965861]]</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
@@ -12799,7 +12798,7 @@
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
-          <t>[[ -3.57366148  28.71712514 -78.54470904  93.49000912 -39.08876375]
+          <t>[[ -3.57378661  28.71804431 -78.54675998  93.49170219 -39.08919991]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -12824,37 +12823,37 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>[[1.64889616e-04]
- [4.87195048e-04]
- [2.61677807e-04]
- [4.78318577e-03]
- [8.62776630e-03]
- [1.30322743e-02]
- [1.79862081e-02]
- [2.35010282e-02]
- [2.95804812e-02]
- [3.62133014e-02]
- [4.34133699e-02]
- [5.11852606e-02]
- [5.95168033e-02]
- [6.84212901e-02]
- [7.79020735e-02]
- [8.79460433e-02]
- [9.31815138e-02]
- [9.85614433e-02]
- [1.04084087e-01]
- [1.49067301e-01]
- [2.02331625e-01]
- [2.63059208e-01]
- [3.67230284e-01]
- [4.92549841e-01]
- [6.34500040e-01]
- [7.30240654e-01]
- [8.35370524e-01]
- [9.47192100e-01]
- [1.05613944e+00]
- [1.16743887e+00]
- [1.27664700e+00]]</t>
+          <t>[[1.64889401e-04]
+ [4.87194991e-04]
+ [2.61678719e-04]
+ [4.78318668e-03]
+ [8.62777107e-03]
+ [1.30322847e-02]
+ [1.79862259e-02]
+ [2.35010540e-02]
+ [2.95805149e-02]
+ [3.62133429e-02]
+ [4.34134176e-02]
+ [5.11853118e-02]
+ [5.95168556e-02]
+ [6.84213434e-02]
+ [7.79021290e-02]
+ [8.79461024e-02]
+ [9.31815757e-02]
+ [9.85615090e-02]
+ [1.04084157e-01]
+ [1.49067421e-01]
+ [2.02331818e-01]
+ [2.63059494e-01]
+ [3.67230862e-01]
+ [4.92550949e-01]
+ [6.34501865e-01]
+ [7.30242984e-01]
+ [8.35373404e-01]
+ [9.47195561e-01]
+ [1.05614356e+00]
+ [1.16744392e+00]
+ [1.27665284e+00]]</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
@@ -12877,7 +12876,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>[1.276647]</t>
+          <t>[1.27665284]</t>
         </is>
       </c>
       <c r="E503" t="inlineStr"/>
@@ -12900,24 +12899,24 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>[[-40596880.92019818]
- [-39013810.15813801]
- [-37233827.30151691]
- [-36008320.73475144]
- [-34778970.60905722]
- [-33541803.15730435]
- [-32364516.82937503]
- [-31170511.81223441]
- [-29954527.71259812]
- [-28785419.56974898]
- [-27581013.95709726]
- [-26332493.76461402]
- [-25291537.89759362]
- [-24413891.24227541]
- [-23536244.58695756]
- [-23124016.0446719 ]
- [-22711787.50238615]
- [-22299558.96010034]]</t>
+          <t>[[-40596731.20621138]
+ [-39013662.55097988]
+ [-37233681.80118743]
+ [-36008178.93733328]
+ [-34778832.51455013]
+ [-33541668.76570825]
+ [-32364382.31009251]
+ [-31170377.16526508]
+ [-29954392.93794282]
+ [-28785280.58143637]
+ [-27580870.75512745]
+ [-26332346.34898758]
+ [-25291392.65263879]
+ [-24413748.16799246]
+ [-23536103.68334634]
+ [-23123878.20553865]
+ [-22711652.72773111]
+ [-22299427.24992285]]</t>
         </is>
       </c>
       <c r="E504" t="inlineStr"/>
@@ -12940,24 +12939,24 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>[[ -3662449.71470035]
- [-11450962.94817136]
- [-14004963.43731537]
- [  2912683.54555915]
- [  2912788.70166799]
- [  2912895.41851017]
- [  2912949.4521092 ]
- [  2913063.75467921]
- [  2913183.90911853]
- [  2913235.69762963]
- [  2913375.76634188]
- [  2913530.21989798]
- [  2913440.77067488]
- [  2913224.34714092]
- [  2913298.48894411]
- [  2912623.69312219]
- [  2912641.55815412]
- [  2912659.20737654]]</t>
+          <t>[[ -3662444.94089899]
+ [-11450957.25926815]
+ [-14004966.65213128]
+ [  2912683.54413256]
+ [  2912788.70026313]
+ [  2912895.4171327 ]
+ [  2912949.45363142]
+ [  2913063.75620769]
+ [  2913183.9106577 ]
+ [  2913235.70325484]
+ [  2913375.77190149]
+ [  2913530.22536878]
+ [  2913440.76793169]
+ [  2913224.34434927]
+ [  2913298.48613746]
+ [  2912623.68865093]
+ [  2912641.55367525]
+ [  2912659.20289404]]</t>
         </is>
       </c>
       <c r="E505" t="inlineStr"/>
@@ -12980,24 +12979,24 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>[[ -394.6990425 ]
- [-1520.24416023]
- [-3249.12462562]
- [-3355.02293262]
- [-3355.00833676]
- [-3354.9911946 ]
- [-3354.97738812]
- [-3354.95424981]
- [-3354.92758912]
- [-3354.90749852]
- [-3354.87152572]
- [-3354.82954601]
- [-3354.82541595]
- [-3354.84518237]
- [-3354.81303628]
- [-3354.94054186]
- [-3354.93179183]
- [-3354.92280069]]</t>
+          <t>[[ -394.69921549]
+ [-1520.24544791]
+ [-3249.12728142]
+ [-3355.02293261]
+ [-3355.00833672]
+ [-3354.99119454]
+ [-3354.97738773]
+ [-3354.9542494 ]
+ [-3354.92758868]
+ [-3354.9074975 ]
+ [-3354.87152469]
+ [-3354.82954498]
+ [-3354.82541636]
+ [-3354.84518278]
+ [-3354.81303668]
+ [-3354.94054272]
+ [-3354.93179268]
+ [-3354.92280154]]</t>
         </is>
       </c>
       <c r="E506" t="inlineStr"/>
@@ -13020,24 +13019,24 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>[[  -1931.07485869]
- [ -16316.04658301]
- [ -55263.58933739]
- [ -73667.88481149]
- [ -84838.29442972]
- [ -96006.01513934]
- [-107170.88943146]
- [-118332.47764682]
- [-129490.6846297 ]
- [-140645.44429613]
- [-151796.3714046 ]
- [-162943.53833397]
- [-174087.03086877]
- [-185226.3023118 ]
- [-196361.15202109]
- [-201927.18753368]
- [-207492.04595777]
- [-213055.73331589]]</t>
+          <t>[[  -1931.07795221]
+ [ -16316.07104441]
+ [ -55263.66471852]
+ [ -73667.98250665]
+ [ -84838.3921303 ]
+ [ -96006.11284409]
+ [-107170.98713904]
+ [-118332.57537323]
+ [-129490.78239303]
+ [-140645.54211826]
+ [-151796.46933453]
+ [-162943.6364243 ]
+ [-174087.12916975]
+ [-185226.40083706]
+ [-196361.25078562]
+ [-201927.28642394]
+ [-207492.14496805]
+ [-213055.83244043]]</t>
         </is>
       </c>
       <c r="E507" t="inlineStr"/>
@@ -13060,24 +13059,24 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>[[3.23365506e+07]
- [1.97402889e+08]
- [4.54297960e+08]
- [5.26357558e+08]
- [5.16492371e+08]
- [5.06613490e+08]
- [4.96721926e+08]
- [4.86818580e+08]
- [4.76905244e+08]
- [4.66982982e+08]
- [4.57052678e+08]
- [4.47116298e+08]
- [4.37175231e+08]
- [4.27228855e+08]
- [4.17277054e+08]
- [4.12300519e+08]
- [4.07322820e+08]
- [4.02344097e+08]]</t>
+          <t>[[3.23364940e+07]
+ [1.97402721e+08]
+ [4.54297851e+08]
+ [5.26357514e+08]
+ [5.16492328e+08]
+ [5.06613448e+08]
+ [4.96721884e+08]
+ [4.86818538e+08]
+ [4.76905203e+08]
+ [4.66982942e+08]
+ [4.57052639e+08]
+ [4.47116260e+08]
+ [4.37175195e+08]
+ [4.27228819e+08]
+ [4.17277020e+08]
+ [4.12300486e+08]
+ [4.07322787e+08]
+ [4.02344065e+08]]</t>
         </is>
       </c>
       <c r="E508" t="inlineStr"/>
@@ -13100,24 +13099,24 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>[[ 978443.02316678]
- [2182264.27709308]
- [3888770.48844431]
- [6490285.79516319]
- [6490262.40134529]
- [6490238.93432673]
- [6490260.41689161]
- [6490236.36080705]
- [6490211.96328327]
- [6490235.58615588]
- [6490209.80563315]
- [6490183.24696436]
- [6490201.20063834]
- [6490176.44821831]
- [6490155.57920109]
- [6490170.81604749]
- [6490160.38154024]
- [6490149.94706646]]</t>
+          <t>[[ 978442.42642235]
+ [2182263.25219865]
+ [3888769.48190549]
+ [6490285.79483912]
+ [6490262.40101115]
+ [6490238.93398225]
+ [6490260.41407819]
+ [6490236.35799339]
+ [6490211.96046942]
+ [6490235.58025671]
+ [6490209.79975532]
+ [6490183.2411114 ]
+ [6490201.19865076]
+ [6490176.44622235]
+ [6490155.57720615]
+ [6490170.81693992]
+ [6490160.38243208]
+ [6490149.94795783]]</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
@@ -13140,9 +13139,9 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>[[ 2.91268355e+06]
+          <t>[[ 2.91268354e+06]
  [-3.35502293e+03]
- [-3.72338273e+07]]</t>
+ [-3.72336818e+07]]</t>
         </is>
       </c>
       <c r="E510" t="inlineStr"/>
@@ -13165,9 +13164,9 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>[[-6.24950063e+04]
- [ 5.36207294e+08]
- [ 6.49028580e+06]]</t>
+          <t>[[-6.24951040e+04]
+ [ 5.36207250e+08]
+ [ 6.49028579e+06]]</t>
         </is>
       </c>
       <c r="E511" t="inlineStr"/>
@@ -13223,8 +13222,8 @@
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
  10.         10.         10.         10.         10.         10.
- 10.         10.         10.         10.          8.66666667  7.33333333
-  6.        ]</t>
+ 10.         10.         10.         10.          8.66633333  7.33266667
+  5.999     ]</t>
         </is>
       </c>
       <c r="E513" t="inlineStr"/>
@@ -13247,11 +13246,11 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>[0.06195332 0.06195332 0.06195332 0.12923095 0.12923095 0.12923095
- 0.12062215 0.12062215 0.12062215 0.11166989 0.11166989 0.11166989
- 0.10347212 0.10347212 0.10347212 0.09713905 0.09713905 0.09713905
- 0.07851955 0.07851955 0.07851955 0.04104054 0.04104054 0.04104054
- 0.01470261 0.01470261 0.01470261 0.01259855 0.01259855 0.01259855]</t>
+          <t>[0.06195323 0.06195323 0.06195323 0.1292305  0.1292305  0.1292305
+ 0.12062217 0.12062217 0.12062217 0.11167039 0.11167039 0.11167039
+ 0.10347187 0.10347187 0.10347187 0.09713833 0.09713833 0.09713833
+ 0.07851933 0.07851933 0.07851933 0.04104007 0.04104007 0.04104007
+ 0.01470254 0.01470254 0.01470254 0.01259863 0.01259863 0.01259863]</t>
         </is>
       </c>
       <c r="E514" t="inlineStr"/>
@@ -13350,11 +13349,11 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>[2.06966115 2.06966115 2.06966115 4.28796434 4.28796434 4.28796434
- 4.00580979 4.00580979 4.00580979 3.71186942 3.71186942 3.71186942
- 3.44222979 3.44222979 3.44222979 3.23361417 3.23361417 3.23361417
- 2.61871331 2.61871331 2.61871331 1.3739177  1.3739177  1.3739177
- 0.49350229 0.49350229 0.49350229 0.39473385 0.33826708 0.28180031]</t>
+          <t>[2.0696583  2.0696583  2.0696583  4.28794979 4.28794979 4.28794979
+ 4.00581033 4.00581033 4.00581033 3.71188598 3.71188598 3.71188598
+ 3.44222138 3.44222138 3.44222138 3.23359023 3.23359023 3.23359023
+ 2.61870583 2.61870583 2.61870583 1.37390206 1.37390206 1.37390206
+ 0.49349991 0.49349991 0.49349991 0.39472935 0.33824809 0.28176684]</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
@@ -13377,11 +13376,11 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>[1.17774488 1.17774488 1.17774488 2.44788253 2.44788253 2.44788253
- 2.28585096 2.28585096 2.28585096 2.11720314 2.11720314 2.11720314
- 1.96263241 1.96263241 1.96263241 1.84313093 1.84313093 1.84313093
- 1.49133225 1.49133225 1.49133225 0.78108304 0.78108304 0.78108304
- 0.28022907 0.28022907 0.28022907 0.22413271 0.1920896  0.16004654]</t>
+          <t>[1.17774326 1.17774326 1.17774326 2.44787417 2.44787417 2.44787417
+ 2.28585128 2.28585128 2.28585128 2.11721264 2.11721264 2.11721264
+ 1.96262759 1.96262759 1.96262759 1.84311723 1.84311723 1.84311723
+ 1.49132797 1.49132797 1.49132797 0.78107414 0.78107414 0.78107414
+ 0.28022772 0.28022772 0.28022772 0.22413015 0.19207883 0.16002755]</t>
         </is>
       </c>
       <c r="E519" t="inlineStr"/>
@@ -13404,11 +13403,11 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>[1.17774488 1.17774488 1.17774488 2.44788253 2.44788253 2.44788253
- 2.28585096 2.28585096 2.28585096 2.11720314 2.11720314 2.11720314
- 1.96263241 1.96263241 1.96263241 1.84313093 1.84313093 1.84313093
- 1.49133225 1.49133225 1.49133225 0.78108304 0.78108304 0.78108304
- 0.28022907 0.28022907 0.28022907 0.22413271 0.1920896  0.16004654]</t>
+          <t>[1.17774326 1.17774326 1.17774326 2.44787417 2.44787417 2.44787417
+ 2.28585128 2.28585128 2.28585128 2.11721264 2.11721264 2.11721264
+ 1.96262759 1.96262759 1.96262759 1.84311723 1.84311723 1.84311723
+ 1.49132797 1.49132797 1.49132797 0.78107414 0.78107414 0.78107414
+ 0.28022772 0.28022772 0.28022772 0.22413015 0.19207883 0.16002755]</t>
         </is>
       </c>
       <c r="E520" t="inlineStr"/>
@@ -13431,12 +13430,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>[ 51.10438879  51.10438879  51.10438879 104.464226   104.464226
- 104.464226    97.75843935  97.75843935  97.75843935  90.747359
-  90.747359    90.747359    84.29329781  84.29329781  84.29329781
-  79.28505924  79.28505924  79.28505924  64.44780437  64.44780437
-  64.44780437  34.06716779  34.06716779  34.06716779  12.30133178
-  12.30133178  12.30133178   8.57324974   5.39525342   3.11930265]</t>
+          <t>[ 51.1043193   51.1043193   51.1043193  104.46388071 104.46388071
+ 104.46388071  97.75845236  97.75845236  97.75845236  90.74775489
+  90.74775489  90.74775489  84.29309615  84.29309615  84.29309615
+  79.28448391  79.28448391  79.28448391  64.44762323  64.44762323
+  64.44762323  34.06678338  34.06678338  34.06678338  12.30127258
+  12.30127258  12.30127258   8.57284516   5.39427506   3.11815093]</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
@@ -13459,11 +13458,11 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>[25.5521944  25.5521944  25.5521944  52.232113   52.232113   52.232113
- 48.87921968 48.87921968 48.87921968 45.3736795  45.3736795  45.3736795
- 42.14664891 42.14664891 42.14664891 39.64252962 39.64252962 39.64252962
- 32.22390218 32.22390218 32.22390218 17.0335839  17.0335839  17.0335839
-  6.15066589  6.15066589  6.15066589  4.28662487  2.69762671  1.55965132]</t>
+          <t>[25.55215965 25.55215965 25.55215965 52.23194036 52.23194036 52.23194036
+ 48.87922618 48.87922618 48.87922618 45.37387745 45.37387745 45.37387745
+ 42.14654808 42.14654808 42.14654808 39.64224195 39.64224195 39.64224195
+ 32.22381162 32.22381162 32.22381162 17.03339169 17.03339169 17.03339169
+  6.15063629  6.15063629  6.15063629  4.28642258  2.69713753  1.55907546]</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -13486,11 +13485,11 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>[25.5521944  25.5521944  25.5521944  52.232113   52.232113   52.232113
- 48.87921968 48.87921968 48.87921968 45.3736795  45.3736795  45.3736795
- 42.14664891 42.14664891 42.14664891 39.64252962 39.64252962 39.64252962
- 32.22390218 32.22390218 32.22390218 17.0335839  17.0335839  17.0335839
-  6.15066589  6.15066589  6.15066589  4.28662487  2.69762671  1.55965132]</t>
+          <t>[25.55215965 25.55215965 25.55215965 52.23194036 52.23194036 52.23194036
+ 48.87922618 48.87922618 48.87922618 45.37387745 45.37387745 45.37387745
+ 42.14654808 42.14654808 42.14654808 39.64224195 39.64224195 39.64224195
+ 32.22381162 32.22381162 32.22381162 17.03339169 17.03339169 17.03339169
+  6.15063629  6.15063629  6.15063629  4.28642258  2.69713753  1.55907546]</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
@@ -13615,36 +13614,36 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[[-4.05968809e+07]
- [-3.90138102e+07]
- [-3.72338273e+07]
- [-3.60083207e+07]
- [-3.47789706e+07]
- [-3.35418032e+07]
- [-3.23645168e+07]
- [-3.11705118e+07]
- [-2.99545277e+07]
- [-2.87854196e+07]
- [-2.75810140e+07]
- [-2.63324938e+07]
- [-2.52915379e+07]
- [-2.44138912e+07]
- [-2.35362446e+07]
- [-2.31240160e+07]
- [-2.27117875e+07]
- [-2.22995590e+07]
- [-1.88954485e+07]
- [-1.64655768e+07]
- [-1.40342532e+07]
- [-1.22013246e+07]
- [-1.03669126e+07]
- [-8.53103658e+06]
- [-8.12554886e+06]
- [-7.71952822e+06]
- [-7.31314390e+06]
- [-7.00648946e+06]
- [-6.74237533e+06]
- [ 4.91854735e-09]]</t>
+          <t>[[-4.05967312e+07]
+ [-3.90136626e+07]
+ [-3.72336818e+07]
+ [-3.60081789e+07]
+ [-3.47788325e+07]
+ [-3.35416688e+07]
+ [-3.23643823e+07]
+ [-3.11703772e+07]
+ [-2.99543929e+07]
+ [-2.87852806e+07]
+ [-2.75808708e+07]
+ [-2.63323463e+07]
+ [-2.52913927e+07]
+ [-2.44137482e+07]
+ [-2.35361037e+07]
+ [-2.31238782e+07]
+ [-2.27116527e+07]
+ [-2.22994272e+07]
+ [-1.88953240e+07]
+ [-1.64654594e+07]
+ [-1.40341430e+07]
+ [-1.22012349e+07]
+ [-1.03668433e+07]
+ [-8.53098781e+06]
+ [-8.12550197e+06]
+ [-7.71948321e+06]
+ [-7.31310077e+06]
+ [-7.00644966e+06]
+ [-6.74234984e+06]
+ [-8.65838956e-09]]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13667,36 +13666,36 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>[[-3.66244971e+06]
- [-1.14509629e+07]
- [-1.40049634e+07]
- [ 2.91268355e+06]
+          <t>[[-3.66244494e+06]
+ [-1.14509573e+07]
+ [-1.40049667e+07]
+ [ 2.91268354e+06]
  [ 2.91278870e+06]
  [ 2.91289542e+06]
  [ 2.91294945e+06]
- [ 2.91306375e+06]
+ [ 2.91306376e+06]
  [ 2.91318391e+06]
  [ 2.91323570e+06]
  [ 2.91337577e+06]
- [ 2.91353022e+06]
+ [ 2.91353023e+06]
  [ 2.91344077e+06]
- [ 2.91322435e+06]
+ [ 2.91322434e+06]
  [ 2.91329849e+06]
  [ 2.91262369e+06]
- [ 2.91264156e+06]
- [ 2.91265921e+06]
- [ 2.91648866e+06]
- [ 2.91733699e+06]
- [ 2.91809198e+06]
- [ 2.91751353e+06]
- [ 2.91864276e+06]
- [ 2.91953355e+06]
+ [ 2.91264155e+06]
+ [ 2.91265920e+06]
+ [ 2.91648865e+06]
+ [ 2.91733698e+06]
+ [ 2.91809197e+06]
+ [ 2.91751349e+06]
+ [ 2.91864271e+06]
+ [ 2.91953350e+06]
  [ 2.91385253e+06]
  [ 2.91403952e+06]
  [ 2.91417285e+06]
  [ 2.91370668e+06]
- [ 2.91350111e+06]
- [ 1.24907369e+03]]</t>
+ [ 2.91350104e+06]
+ [ 1.24893896e+03]]</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
@@ -13719,36 +13718,36 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>[[ -394.6990425 ]
- [-1520.24416023]
- [-3249.12462562]
- [-3355.02293262]
- [-3355.00833676]
- [-3354.9911946 ]
- [-3354.97738812]
- [-3354.95424981]
- [-3354.92758912]
- [-3354.90749852]
- [-3354.87152572]
- [-3354.82954601]
- [-3354.82541595]
- [-3354.84518237]
- [-3354.81303628]
- [-3354.94054186]
- [-3354.93179183]
- [-3354.92280069]
- [-3353.89984101]
- [-3353.31950169]
- [-3352.65010598]
- [-3352.17867789]
- [-3350.3623595 ]
- [-3348.27912509]
- [-3352.90505035]
- [-3351.983186  ]
- [-3351.00366807]
- [-3351.09446808]
- [-3350.41633537]
- [    4.56067559]]</t>
+          <t>[[ -394.69921549]
+ [-1520.24544791]
+ [-3249.12728142]
+ [-3355.02293261]
+ [-3355.00833672]
+ [-3354.99119454]
+ [-3354.97738773]
+ [-3354.9542494 ]
+ [-3354.92758868]
+ [-3354.9074975 ]
+ [-3354.87152469]
+ [-3354.82954498]
+ [-3354.82541636]
+ [-3354.84518278]
+ [-3354.81303668]
+ [-3354.94054272]
+ [-3354.93179268]
+ [-3354.92280154]
+ [-3353.89984165]
+ [-3353.31950216]
+ [-3352.65010629]
+ [-3352.17869524]
+ [-3350.36237608]
+ [-3348.27914083]
+ [-3352.90504211]
+ [-3351.98317741]
+ [-3351.00365912]
+ [-3351.09446349]
+ [-3350.41638514]
+ [    4.56043695]]</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
@@ -13771,36 +13770,36 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>[[-1.93107486e+03]
- [-1.63160466e+04]
- [-5.52635893e+04]
- [-7.36678848e+04]
- [-8.48382944e+04]
- [-9.60060151e+04]
- [-1.07170889e+05]
- [-1.18332478e+05]
- [-1.29490685e+05]
- [-1.40645444e+05]
- [-1.51796371e+05]
- [-1.62943538e+05]
- [-1.74087031e+05]
- [-1.85226302e+05]
- [-1.96361152e+05]
- [-2.01927188e+05]
- [-2.07492046e+05]
- [-2.13055733e+05]
- [-2.53306490e+05]
- [-2.93476996e+05]
- [-3.33580647e+05]
- [-3.90674371e+05]
- [-4.47450594e+05]
- [-5.03984476e+05]
- [-5.37751450e+05]
- [-5.71185436e+05]
- [-6.04299575e+05]
- [-6.34866443e+05]
- [-6.64883718e+05]
- [-1.15149827e-04]]</t>
+          <t>[[-1.93107795e+03]
+ [-1.63160710e+04]
+ [-5.52636647e+04]
+ [-7.36679825e+04]
+ [-8.48383921e+04]
+ [-9.60061128e+04]
+ [-1.07170987e+05]
+ [-1.18332575e+05]
+ [-1.29490782e+05]
+ [-1.40645542e+05]
+ [-1.51796469e+05]
+ [-1.62943636e+05]
+ [-1.74087129e+05]
+ [-1.85226401e+05]
+ [-1.96361251e+05]
+ [-2.01927286e+05]
+ [-2.07492145e+05]
+ [-2.13055832e+05]
+ [-2.53306590e+05]
+ [-2.93477097e+05]
+ [-3.33580750e+05]
+ [-3.90674476e+05]
+ [-4.47450699e+05]
+ [-5.03984578e+05]
+ [-5.37751550e+05]
+ [-5.71185533e+05]
+ [-6.04299671e+05]
+ [-6.34866528e+05]
+ [-6.64883714e+05]
+ [-1.15172596e-04]]</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
@@ -13823,36 +13822,36 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[[ 3.23365506e+07]
- [ 1.97402889e+08]
- [ 4.54297960e+08]
- [ 5.26357558e+08]
- [ 5.16492371e+08]
- [ 5.06613490e+08]
- [ 4.96721926e+08]
- [ 4.86818580e+08]
- [ 4.76905244e+08]
- [ 4.66982982e+08]
- [ 4.57052678e+08]
- [ 4.47116298e+08]
- [ 4.37175231e+08]
- [ 4.27228855e+08]
- [ 4.17277054e+08]
- [ 4.12300519e+08]
- [ 4.07322820e+08]
- [ 4.02344097e+08]
- [ 3.66234554e+08]
- [ 3.30076599e+08]
- [ 2.93925180e+08]
- [ 2.42247963e+08]
- [ 1.90502238e+08]
- [ 1.38813991e+08]
- [ 1.07866526e+08]
- [ 7.68824535e+07]
- [ 4.58894087e+07]
- [ 1.69714781e+07]
- [-1.19295151e+07]
- [ 3.15378413e-02]]</t>
+          <t>[[ 3.23364940e+07]
+ [ 1.97402721e+08]
+ [ 4.54297851e+08]
+ [ 5.26357514e+08]
+ [ 5.16492328e+08]
+ [ 5.06613448e+08]
+ [ 4.96721884e+08]
+ [ 4.86818538e+08]
+ [ 4.76905203e+08]
+ [ 4.66982942e+08]
+ [ 4.57052639e+08]
+ [ 4.47116260e+08]
+ [ 4.37175195e+08]
+ [ 4.27228819e+08]
+ [ 4.17277020e+08]
+ [ 4.12300486e+08]
+ [ 4.07322787e+08]
+ [ 4.02344065e+08]
+ [ 3.66234527e+08]
+ [ 3.30076577e+08]
+ [ 2.93925164e+08]
+ [ 2.42247954e+08]
+ [ 1.90502234e+08]
+ [ 1.38813990e+08]
+ [ 1.07866525e+08]
+ [ 7.68824526e+07]
+ [ 4.58894083e+07]
+ [ 1.69714775e+07]
+ [-1.19295177e+07]
+ [ 3.15410089e-02]]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
@@ -13875,36 +13874,36 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[[ 9.78443023e+05]
- [ 2.18226428e+06]
- [ 3.88877049e+06]
- [ 6.49028580e+06]
- [ 6.49026240e+06]
- [ 6.49023893e+06]
- [ 6.49026042e+06]
- [ 6.49023636e+06]
- [ 6.49021196e+06]
- [ 6.49023559e+06]
- [ 6.49020981e+06]
- [ 6.49018325e+06]
- [ 6.49020120e+06]
- [ 6.49017645e+06]
- [ 6.49015558e+06]
- [ 6.49017082e+06]
- [ 6.49016038e+06]
- [ 6.49014995e+06]
- [ 6.49024140e+06]
- [ 6.49016565e+06]
- [ 6.49008971e+06]
- [ 6.49041115e+06]
- [ 6.49030195e+06]
- [ 6.49019266e+06]
- [ 6.49099009e+06]
- [ 6.49092282e+06]
- [ 6.49085546e+06]
- [ 6.49109162e+06]
- [ 6.49127061e+06]
- [-2.77712829e-09]]</t>
+          <t>[[ 978442.42642235]
+ [2182263.25219865]
+ [3888769.48190549]
+ [6490285.79483912]
+ [6490262.40101115]
+ [6490238.93398225]
+ [6490260.41407819]
+ [6490236.35799339]
+ [6490211.96046942]
+ [6490235.58025671]
+ [6490209.79975532]
+ [6490183.2411114 ]
+ [6490201.19865076]
+ [6490176.44622235]
+ [6490155.57720615]
+ [6490170.81693992]
+ [6490160.38243208]
+ [6490149.94795783]
+ [6490241.40063996]
+ [6490165.65141697]
+ [6490089.70410439]
+ [6490411.15418793]
+ [6490301.95168675]
+ [6490192.66448393]
+ [6490990.08919011]
+ [6490922.81994532]
+ [6490855.46368583]
+ [6491091.62501607]
+ [6491270.69360971]
+ [      0.        ]]</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -13927,24 +13926,24 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[[-13287682.03307771]
- [ 19777047.8444993 ]
- [ 70905774.87253346]
- [ 41988861.10800594]
- [ 41331198.81916215]
- [ 40674048.79626136]
- [ 42731762.31615587]
- [ 42016788.34989673]
- [ 41306279.34358821]
- [ 43704714.17111023]
- [ 42934908.49000511]
- [ 42176318.14102867]
- [ 44516156.85863867]
- [ 43591149.64658696]
- [ 42665499.09475376]
- [ 44851166.76400779]
- [ 44350826.3647106 ]
- [ 43850356.89102769]]</t>
+          <t>[[-13287639.17222578]
+ [ 19777112.92815456]
+ [ 70905920.02520701]
+ [ 41989028.06312376]
+ [ 41331362.8026798 ]
+ [ 40674209.81054133]
+ [ 42731785.93125343]
+ [ 42016812.14846313]
+ [ 41306303.33410707]
+ [ 43704557.31072683]
+ [ 42934756.19815812]
+ [ 42176170.38809169]
+ [ 44516300.82578047]
+ [ 43591290.9396769 ]
+ [ 42665637.71590906]
+ [ 44851529.61565246]
+ [ 44351184.73892143]
+ [ 43850710.78449154]]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -13967,24 +13966,24 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[[ 3205443.82819997]
- [ 9936297.79972828]
- [12271812.36524044]
- [ 1500525.9317377 ]
- [ 1500567.76998583]
- [ 1500610.24231378]
- [ 1606293.99954864]
- [ 1606342.77350545]
- [ 1606394.09003512]
- [ 1733583.13552135]
- [ 1733647.87242744]
- [ 1733719.36071866]
- [ 1869433.93504692]
- [ 1869322.19483426]
- [ 1869358.73362555]
- [ 1989553.18335478]
- [ 1989562.21806627]
- [ 1989571.13569124]]</t>
+          <t>[[ 3205444.14098368]
+ [ 9936306.58606859]
+ [12271831.93504646]
+ [ 1500531.02250057]
+ [ 1500572.86090008]
+ [ 1500615.33338389]
+ [ 1606293.78107082]
+ [ 1606342.55502228]
+ [ 1606393.87154818]
+ [ 1733575.40283187]
+ [ 1733640.13941909]
+ [ 1733711.62735036]
+ [ 1869438.49986019]
+ [ 1869326.75934572]
+ [ 1869363.29821691]
+ [ 1989567.90240546]
+ [ 1989576.93718262]
+ [ 1989585.85487457]]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
@@ -14009,17 +14008,17 @@
         <is>
           <t>[[       -0.        ]
  [       -0.        ]
- [-12492015.19916719]
- [-11259176.22977438]
- [ -9990490.35415002]
- [ -8733035.66927849]
- [ -8028904.20670441]
- [ -6707329.01644684]
- [ -5401407.13738713]
- [ -4447131.76240541]
- [ -3076965.40054015]
- [ -1733165.99801027]
- [  -577007.09662002]
+ [-12492032.61625092]
+ [-11259215.4601846 ]
+ [ -9990525.16407127]
+ [ -8733066.09784361]
+ [ -8028903.08461311]
+ [ -6707328.07905901]
+ [ -5401406.38251326]
+ [ -4447111.45961492]
+ [ -3076951.35306013]
+ [ -1733158.08546797]
+ [  -577008.53630241]
  [       -0.        ]
  [       -0.        ]
  [       -0.        ]
@@ -14083,24 +14082,24 @@
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[[0.07325696]
- [0.13336382]
- [0.41079269]
- [0.24761245]
- [0.2400996 ]
- [0.23270297]
- [0.24082839]
- [0.23311142]
- [0.22556723]
- [0.23495218]
- [0.22715411]
- [0.21962233]
- [0.2285279 ]
- [0.22235711]
- [0.21766161]
- [0.22882837]
- [0.22629072]
- [0.2237526 ]]</t>
+          <t>[[0.07325676]
+ [0.13336413]
+ [0.41079349]
+ [0.24761341]
+ [0.24010054]
+ [0.23270387]
+ [0.24082851]
+ [0.23311154]
+ [0.22556735]
+ [0.23495132]
+ [0.22715329]
+ [0.21962156]
+ [0.22852864]
+ [0.22235783]
+ [0.21766232]
+ [0.22883022]
+ [0.22629255]
+ [0.22375441]]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
@@ -14119,24 +14118,24 @@
       <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
-          <t>[[0.1074613 ]
- [0.15002895]
- [0.36125384]
- [0.04454927]
- [0.04095926]
- [0.03754629]
- [0.03845944]
- [0.03516825]
- [0.03222114]
- [0.03357429]
- [0.03113098]
- [0.02926263]
- [0.03124388]
- [0.03035592]
- [0.02944411]
- [0.02953999]
- [0.02909407]
- [0.02864924]]</t>
+          <t>[[0.10746119]
+ [0.15002901]
+ [0.3612548 ]
+ [0.04454946]
+ [0.04095942]
+ [0.03754644]
+ [0.03845935]
+ [0.03516816]
+ [0.03222104]
+ [0.03357393]
+ [0.03113064]
+ [0.02926231]
+ [0.03124384]
+ [0.03035587]
+ [0.02944406]
+ [0.02954013]
+ [0.02909421]
+ [0.02864938]]</t>
         </is>
       </c>
       <c r="E538" t="inlineStr"/>
@@ -14155,24 +14154,24 @@
       <c r="C539" t="inlineStr"/>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[[0.12248491]
- [0.25831259]
- [0.47100775]
- [0.2564045 ]
- [0.2509138 ]
- [0.24541066]
- [0.25658795]
- [0.25074701]
- [0.24487666]
- [0.25769246]
- [0.25137165]
- [0.24499109]
- [0.25732883]
- [0.25099463]
- [0.24466026]
- [0.25690436]
- [0.25357586]
- [0.25024749]]</t>
+          <t>[[0.12248473]
+ [0.25831257]
+ [0.47100816]
+ [0.2564053 ]
+ [0.25091458]
+ [0.24541142]
+ [0.25658785]
+ [0.25074691]
+ [0.24487655]
+ [0.25769124]
+ [0.25137045]
+ [0.24498991]
+ [0.25732935]
+ [0.25099513]
+ [0.24466075]
+ [0.25690612]
+ [0.2535776 ]
+ [0.25024922]]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
@@ -14195,36 +14194,36 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[[-1.32876820e+07]
- [ 1.97770478e+07]
- [ 7.09057749e+07]
- [ 4.19888611e+07]
- [ 4.13311988e+07]
- [ 4.06740488e+07]
- [ 4.27317623e+07]
- [ 4.20167883e+07]
- [ 4.13062793e+07]
- [ 4.37047142e+07]
- [ 4.29349085e+07]
- [ 4.21763181e+07]
- [ 4.45161569e+07]
- [ 4.35911496e+07]
- [ 4.26654991e+07]
- [ 4.48511668e+07]
- [ 4.43508264e+07]
- [ 4.38503569e+07]
- [ 4.96110038e+07]
- [ 4.49284734e+07]
- [ 4.02475141e+07]
- [ 6.22283351e+07]
- [ 4.83742416e+07]
- [ 3.45381384e+07]
- [ 7.12228902e+07]
- [ 4.68586824e+07]
- [ 2.24887925e+07]
- [ 7.39143214e+05]
- [-2.21574961e+06]
- [ 6.74040818e-02]]</t>
+          <t>[[-1.32876392e+07]
+ [ 1.97771129e+07]
+ [ 7.09059200e+07]
+ [ 4.19890281e+07]
+ [ 4.13313628e+07]
+ [ 4.06742098e+07]
+ [ 4.27317859e+07]
+ [ 4.20168121e+07]
+ [ 4.13063033e+07]
+ [ 4.37045573e+07]
+ [ 4.29347562e+07]
+ [ 4.21761704e+07]
+ [ 4.45163008e+07]
+ [ 4.35912909e+07]
+ [ 4.26656377e+07]
+ [ 4.48515296e+07]
+ [ 4.43511847e+07]
+ [ 4.38507108e+07]
+ [ 4.96111862e+07]
+ [ 4.49286408e+07]
+ [ 4.02476665e+07]
+ [ 6.22290992e+07]
+ [ 4.83748359e+07]
+ [ 3.45385625e+07]
+ [ 7.12233267e+07]
+ [ 4.68589981e+07]
+ [ 2.24889876e+07]
+ [ 7.39583294e+05]
+ [-2.21468349e+06]
+ [ 6.74272730e-02]]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
@@ -14247,36 +14246,36 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>[[3.20544383e+06]
- [9.93629780e+06]
- [1.22718124e+07]
- [1.50052593e+06]
- [1.50056777e+06]
- [1.50061024e+06]
- [1.60629400e+06]
- [1.60634277e+06]
- [1.60639409e+06]
- [1.73358314e+06]
- [1.73364787e+06]
- [1.73371936e+06]
- [1.86943394e+06]
- [1.86932219e+06]
- [1.86935873e+06]
- [1.98955318e+06]
- [1.98956222e+06]
- [1.98957114e+06]
- [2.45915461e+06]
- [2.45971758e+06]
- [2.46021794e+06]
- [4.68780839e+06]
- [4.68923807e+06]
- [4.69036248e+06]
- [1.30364445e+07]
- [1.30370845e+07]
- [1.30375329e+07]
- [1.65332140e+07]
- [1.99799955e+07]
- [7.80449240e+03]]</t>
+          <t>[[3.20544414e+06]
+ [9.93630659e+06]
+ [1.22718319e+07]
+ [1.50053102e+06]
+ [1.50057286e+06]
+ [1.50061533e+06]
+ [1.60629378e+06]
+ [1.60634256e+06]
+ [1.60639387e+06]
+ [1.73357540e+06]
+ [1.73364014e+06]
+ [1.73371163e+06]
+ [1.86943850e+06]
+ [1.86932676e+06]
+ [1.86936330e+06]
+ [1.98956790e+06]
+ [1.98957694e+06]
+ [1.98958585e+06]
+ [2.45916163e+06]
+ [2.45972459e+06]
+ [2.46022495e+06]
+ [4.68786165e+06]
+ [4.68929135e+06]
+ [4.69041578e+06]
+ [1.30365074e+07]
+ [1.30371474e+07]
+ [1.30375958e+07]
+ [1.65334658e+07]
+ [1.99814179e+07]
+ [7.80457666e+03]]</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -14301,34 +14300,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-1.24920152e+07]
- [-1.12591762e+07]
- [-9.99049035e+06]
- [-8.73303567e+06]
- [-8.02890421e+06]
- [-6.70732902e+06]
- [-5.40140714e+06]
- [-4.44713176e+06]
- [-3.07696540e+06]
- [-1.73316600e+06]
- [-5.77007097e+05]
+ [-1.24920326e+07]
+ [-1.12592155e+07]
+ [-9.99052516e+06]
+ [-8.73306610e+06]
+ [-8.02890308e+06]
+ [-6.70732808e+06]
+ [-5.40140638e+06]
+ [-4.44711146e+06]
+ [-3.07695135e+06]
+ [-1.73315809e+06]
+ [-5.77008536e+05]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
  [-0.00000000e+00]
- [-3.37873840e+03]
- [-9.01313223e+03]
- [-1.00971477e+04]
- [-1.08949455e+04]
- [-2.23768075e+04]
- [-2.37971973e+04]
- [-2.49882534e+04]
- [-7.23053820e+04]
- [-7.39114046e+04]
- [-7.54137707e+04]
- [-8.36419164e+04]
- [-7.28442478e+04]
- [-6.16098239e+04]]</t>
+ [-3.37876390e+03]
+ [-9.01315838e+03]
+ [-1.00971770e+04]
+ [-1.08949771e+04]
+ [-2.23770642e+04]
+ [-2.37974703e+04]
+ [-2.49885401e+04]
+ [-7.23057321e+04]
+ [-7.39117625e+04]
+ [-7.54141358e+04]
+ [-8.36398783e+04]
+ [-7.28392152e+04]
+ [-6.16017083e+04]]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -14399,36 +14398,36 @@
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[[7.32569612e-02]
- [1.33363825e-01]
- [4.10792685e-01]
- [2.47612448e-01]
- [2.40099603e-01]
- [2.32702968e-01]
- [2.40828394e-01]
- [2.33111424e-01]
- [2.25567231e-01]
- [2.34952175e-01]
- [2.27154107e-01]
- [2.19622335e-01]
- [2.28527900e-01]
- [2.22357115e-01]
- [2.17661610e-01]
- [2.28828365e-01]
- [2.26290725e-01]
- [2.23761170e-01]
- [2.53320284e-01]
- [2.29600001e-01]
- [2.05909232e-01]
- [3.19292555e-01]
- [2.49581756e-01]
- [1.80550783e-01]
- [3.80254739e-01]
- [2.64771160e-01]
- [1.62255512e-01]
- [1.45726580e-01]
- [1.76390106e-01]
- [3.20861768e-04]]</t>
+          <t>[[7.32567611e-02]
+ [1.33364125e-01]
+ [4.10793489e-01]
+ [2.47613413e-01]
+ [2.40100539e-01]
+ [2.32703875e-01]
+ [2.40828509e-01]
+ [2.33111541e-01]
+ [2.25567349e-01]
+ [2.34951319e-01]
+ [2.27153292e-01]
+ [2.19621560e-01]
+ [2.28528637e-01]
+ [2.22357834e-01]
+ [2.17662316e-01]
+ [2.28830216e-01]
+ [2.26292553e-01]
+ [2.23762975e-01]
+ [2.53321214e-01]
+ [2.29600855e-01]
+ [2.05910009e-01]
+ [3.19296470e-01]
+ [2.49584816e-01]
+ [1.80552992e-01]
+ [3.80257024e-01]
+ [2.64772849e-01]
+ [1.62256606e-01]
+ [1.45728858e-01]
+ [1.76402274e-01]
+ [3.20821603e-04]]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -14447,36 +14446,36 @@
       <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[[0.1074613 ]
- [0.15002895]
- [0.36125384]
- [0.04454927]
- [0.04095926]
- [0.03754629]
- [0.03845944]
- [0.03516825]
- [0.03222114]
- [0.03357429]
- [0.03113098]
- [0.02926263]
- [0.03124388]
- [0.03035592]
- [0.02944411]
- [0.02953999]
- [0.02909407]
- [0.0286462 ]
- [0.04163862]
- [0.03817181]
- [0.03479007]
- [0.11006465]
- [0.10310779]
- [0.0963184 ]
- [0.73376485]
- [0.72077047]
- [0.7077523 ]
- [0.97838849]
+          <t>[[0.10746119]
+ [0.15002901]
+ [0.3612548 ]
+ [0.04454946]
+ [0.04095942]
+ [0.03754644]
+ [0.03845935]
+ [0.03516816]
+ [0.03222104]
+ [0.03357393]
+ [0.03113064]
+ [0.02926231]
+ [0.03124384]
+ [0.03035587]
+ [0.02944406]
+ [0.02954013]
+ [0.02909421]
+ [0.02864634]
+ [0.04163863]
+ [0.03817182]
+ [0.03479009]
+ [0.11006676]
+ [0.10310985]
+ [0.0963204 ]
+ [0.73377131]
+ [0.72077685]
+ [0.7077586 ]
+ [0.97837557]
  [1.        ]
- [0.01043084]]</t>
+ [0.01042875]]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr"/>
@@ -14495,36 +14494,36 @@
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[[3.30068382e-01]
- [5.87498993e-01]
- [9.86924898e-01]
- [4.97552471e-01]
- [4.85390337e-01]
- [4.73229825e-01]
- [4.94974474e-01]
- [4.82121732e-01]
- [4.69212911e-01]
- [4.93947055e-01]
- [4.80043710e-01]
- [4.65982612e-01]
- [4.89619445e-01]
- [4.76343739e-01]
- [4.63108921e-01]
- [4.87094341e-01]
- [4.80180261e-01]
- [4.73277291e-01]
- [5.23841034e-01]
- [4.65832437e-01]
- [4.08581035e-01]
- [6.61131350e-01]
- [5.22618143e-01]
- [3.87135991e-01]
- [9.42832648e-01]
- [7.22818984e-01]
- [5.06138091e-01]
- [4.39554348e-01]
- [6.01957659e-01]
- [4.68939783e-10]]</t>
+          <t>[[3.30067486e-01]
+ [5.87497443e-01]
+ [9.86922719e-01]
+ [4.97552575e-01]
+ [4.85390436e-01]
+ [4.73229919e-01]
+ [4.94972742e-01]
+ [4.82120028e-01]
+ [4.69211236e-01]
+ [4.93943029e-01]
+ [4.80039763e-01]
+ [4.65978746e-01]
+ [4.89618854e-01]
+ [4.76343156e-01]
+ [4.63108344e-01]
+ [4.87096236e-01]
+ [4.80182134e-01]
+ [4.73279141e-01]
+ [5.23840553e-01]
+ [4.65831973e-01]
+ [4.08580588e-01]
+ [6.61136595e-01]
+ [5.22622326e-01]
+ [3.87139136e-01]
+ [9.42833771e-01]
+ [7.22819695e-01]
+ [5.06138398e-01]
+ [4.39571647e-01]
+ [6.02065211e-01]
+ [4.69101177e-10]]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr"/>
@@ -14657,7 +14656,7 @@
         <is>
           <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637369
  1422.65663273 1490.05546078 1526.70959183 1561.06149957 1593.43543744
- 1387.34045863 1189.05983894  992.78218559]</t>
+ 1387.28433325 1188.95291972  992.62302317]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14778,7 +14777,7 @@
         <is>
           <t>[ 927.99815941 1070.12742489 1170.96499657 1251.15492825 1344.74637369
  1422.65663273 1490.05546078 1526.70959183 1561.06149957 1593.43543744
- 1387.34045863 1189.05983894  992.78218559]</t>
+ 1387.28433325 1188.95291972  992.62302317]</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -14968,8 +14967,8 @@
         <is>
           <t>[ -927.99815941 -1070.12742489 -1170.96499657 -1251.15492825
  -1344.74637369 -1422.65663273 -1490.05546078 -1526.70959183
- -1561.06149957 -1593.43543744 -1387.34045863 -1189.05983894
-  -992.78218559]</t>
+ -1561.06149957 -1593.43543744 -1387.28433325 -1188.95291972
+  -992.62302317]</t>
         </is>
       </c>
       <c r="E564" t="inlineStr"/>
@@ -15013,7 +15012,7 @@
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>[127.35681088 243.66149121 680.1512175  634.99369913]</t>
+          <t>[127.35717748 243.66427506 680.15450559 634.94989899]</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
@@ -15032,7 +15031,7 @@
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[1.  1.  1.  0.6]</t>
+          <t>[1.     1.     1.     0.5999]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -15051,7 +15050,7 @@
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>[1.  1.  1.  0.6]</t>
+          <t>[1.     1.     1.     0.5999]</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
@@ -15070,7 +15069,7 @@
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>[0.52267927 0.35824606 0.85689193]</t>
+          <t>[0.52267481 0.35824842 0.85690162]</t>
         </is>
       </c>
       <c r="E569" t="inlineStr"/>
@@ -15114,8 +15113,8 @@
       <c r="D571" t="inlineStr">
         <is>
           <t>[5.         5.         5.         5.         5.         5.
- 5.         5.         5.         5.         4.33333333 3.66666667
- 3.        ]</t>
+ 5.         5.         5.         5.         4.33316667 3.66633333
+ 2.9995    ]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr"/>
@@ -15367,8 +15366,8 @@
       <c r="D582" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.         10.         10.         10.          8.66666667  7.33333333
-  6.        ]</t>
+ 10.         10.         10.         10.          8.66633333  7.33266667
+  5.999     ]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15621,7 +15620,7 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>[20425.96382418 10716.55802125  3849.31788052  2638.48322235]</t>
+          <t>[20425.90549286 10716.43608977  3849.29929903  2638.33512039]</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
@@ -15648,7 +15647,7 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[251346.4370269  132861.95439941  47975.19395416  21041.4883494 ]</t>
+          <t>[251345.73060626 132860.45517392  47974.9630496   21037.6727326 ]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
@@ -15675,7 +15674,7 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>[251346.4370269  132861.95439941  47975.19395416  21041.4883494 ]</t>
+          <t>[251345.73060626 132860.45517392  47974.9630496   21037.6727326 ]</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
@@ -15702,7 +15701,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>[6.02315929e+12 3.18384746e+12 1.14965718e+12 5.04229292e+11]</t>
+          <t>[6.02314236e+12 3.18381153e+12 1.14965164e+12 5.04137856e+11]</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -15729,7 +15728,7 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>[6.02315929e+12 3.18384746e+12 1.14965718e+12 5.04229292e+11]</t>
+          <t>[6.02314236e+12 3.18381153e+12 1.14965164e+12 5.04137856e+11]</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
@@ -15756,7 +15755,7 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>[4.77636531e+12 2.52479103e+12 9.11678141e+11 3.99853828e+11]</t>
+          <t>[4.77635189e+12 2.52476254e+12 9.11673753e+11 3.99781320e+11]</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
@@ -15783,7 +15782,7 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[4.89479124e+11 2.56807046e+11 9.22434191e+10 6.32274915e+10]</t>
+          <t>[4.89477726e+11 2.56804124e+11 9.22429739e+10 6.32239425e+10]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
@@ -15891,10 +15890,10 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.40859761 0.16602583 0.16602583 0.        ]
- [0.         0.         0.77879483 0.3140854  0.3140854  0.        ]
- [0.         0.         2.16817635 0.86982452 0.86982452 0.        ]
- [0.         0.         3.163181   1.58657978 1.58657978 0.        ]]</t>
+          <t>[[0.         0.         0.40859878 0.16602629 0.16602629 0.        ]
+ [0.         0.         0.77880369 0.31408894 0.31408894 0.        ]
+ [0.         0.         2.16818682 0.86982871 0.86982871 0.        ]
+ [0.         0.         3.16335856 1.58676836 1.58676836 0.        ]]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15917,10 +15916,10 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[[0.67054139 0.67054139 0.         0.         0.         0.08301291]
- [1.2802736  1.2802736  0.         0.         0.         0.1570427 ]
- [3.56850916 3.56850916 0.         0.         0.         0.43491226]
- [5.20590384 5.20590384 0.         0.         0.         0.79328989]]</t>
+          <t>[[0.67054331 0.67054331 0.         0.         0.         0.08301315]
+ [1.28028819 1.28028819 0.         0.         0.         0.15704447]
+ [3.5685264  3.5685264  0.         0.         0.         0.43491435]
+ [5.20619582 5.20619582 0.         0.         0.         0.79338418]]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15943,7 +15942,7 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>[637.69524076]</t>
+          <t>[637.69679704]</t>
         </is>
       </c>
       <c r="E605" t="inlineStr"/>
@@ -15966,7 +15965,7 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>[3900451.65899932]</t>
+          <t>[3900416.58582955]</t>
         </is>
       </c>
       <c r="E606" t="inlineStr"/>
@@ -15990,7 +15989,7 @@
       <c r="D607" t="inlineStr">
         <is>
           <t>[10.         10.         10.         10.         10.         10.
- 10.         10.         10.          9.33333333  8.          6.66666667]</t>
+ 10.         10.         10.          9.33316667  7.9995      6.66583333]</t>
         </is>
       </c>
       <c r="E607" t="inlineStr"/>
@@ -16013,8 +16012,8 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[0.08401592 0.08401592 0.08401592 0.04391338 0.04391338 0.04391338
- 0.0157318  0.0157318  0.0157318  0.01348045 0.01348045 0.01348045]</t>
+          <t>[0.08401568 0.08401568 0.08401568 0.04391288 0.04391288 0.04391288
+ 0.01573172 0.01573172 0.01573172 0.01348054 0.01348054 0.01348054]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -16061,18 +16060,18 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>[[53432931.49077252]
- [48866588.9745528 ]
- [44285337.99876653]
- [70090446.15781373]
- [56422328.90234283]
- [42736981.05066515]
- [94121153.30128561]
- [69923789.15736437]
- [45696392.30487017]
- [31956439.11349905]
- [ 5070070.40773072]
- [ 2443342.30295643]]</t>
+          <t>[[53433133.04047745]
+ [48866775.14770913]
+ [44285508.84144937]
+ [70091310.6855724 ]
+ [56423024.47543055]
+ [42737507.050906  ]
+ [94121724.5811424 ]
+ [69924239.34410065]
+ [45696721.3849461 ]
+ [31957821.88685901]
+ [ 5072021.67566476]
+ [ 2446844.41704904]]</t>
         </is>
       </c>
       <c r="E610" t="inlineStr"/>
@@ -16095,18 +16094,18 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>[[ 2456465.29306335]
- [ 2457056.46041563]
- [ 2457594.00860113]
- [ 4684139.26766009]
- [ 4685726.68247144]
- [ 4687011.51202476]
- [13034521.05982789]
- [13035328.03998799]
- [13035948.14746182]
- [16531895.90723529]
- [19978915.29869163]
- [25138651.79871311]]</t>
+          <t>[[ 2456472.30583674]
+ [ 2457063.47485661]
+ [ 2457601.02456478]
+ [ 4684192.5340444 ]
+ [ 4685779.96737689]
+ [ 4687064.81197671]
+ [13034583.99094426]
+ [13035390.97533843]
+ [13036011.0861077 ]
+ [16532147.70552988]
+ [19980337.73660034]
+ [25142506.27043367]]</t>
         </is>
       </c>
       <c r="E611" t="inlineStr"/>
@@ -16129,18 +16128,18 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>[[ -9013.13223017]
- [-10097.14772359]
- [-10894.94548354]
- [-22376.8075038 ]
- [-23797.19725359]
- [-24988.25344293]
- [-72305.38199664]
- [-73911.40464542]
- [-75413.77068871]
- [-83641.9164356 ]
- [-72844.24776641]
- [-61609.82386018]]</t>
+          <t>[[ -9013.1583801 ]
+ [-10097.17701859]
+ [-10894.9770932 ]
+ [-22377.06421398]
+ [-23797.47025871]
+ [-24988.54011205]
+ [-72305.7320616 ]
+ [-73911.76248588]
+ [-75414.13580281]
+ [-83639.87828229]
+ [-72839.21524283]
+ [-61601.70825613]]</t>
         </is>
       </c>
       <c r="E612" t="inlineStr"/>
@@ -16193,18 +16192,18 @@
       <c r="C614" t="inlineStr"/>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[0.2726942 ]
- [0.24954871]
- [0.22634345]
- [0.35898429]
- [0.29003195]
- [0.22135114]
- [0.49255029]
- [0.37396117]
- [0.25945572]
- [0.21843161]
- [0.17793818]
- [0.22185078]]</t>
+          <t>[[0.27269523]
+ [0.24954966]
+ [0.22634432]
+ [0.35898871]
+ [0.29003552]
+ [0.22135386]
+ [0.49255324]
+ [0.37396352]
+ [0.25945747]
+ [0.21843832]
+ [0.17795202]
+ [0.2218857 ]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16223,18 +16222,18 @@
       <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr">
         <is>
-          <t>[[0.04162794]
- [0.03815851]
- [0.03477474]
- [0.11001382]
- [0.10305277]
- [0.09626043]
- [0.7335685 ]
- [0.72056815]
- [0.70754492]
- [0.97816274]
- [0.99988049]
- [1.04458887]]</t>
+          <t>[[0.04162795]
+ [0.03815852]
+ [0.03477476]
+ [0.11001593]
+ [0.10305482]
+ [0.09626243]
+ [0.73357492]
+ [0.72057449]
+ [0.70755118]
+ [0.97814979]
+ [0.99988048]
+ [1.04461666]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16253,18 +16252,18 @@
       <c r="C616" t="inlineStr"/>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[0.74677004]
- [0.67346566]
- [0.60043738]
- [0.97048366]
- [0.7868998 ]
- [0.60484691]
- [1.44596048]
- [1.15242464]
- [0.86041555]
- [0.81251697]
- [0.61575856]
- [0.79539928]]</t>
+          <t>[[0.74677359]
+ [0.67346884]
+ [0.60044019]
+ [0.97049669]
+ [0.78691041]
+ [0.60485512]
+ [1.44597038]
+ [1.15243235]
+ [0.86042109]
+ [0.81254578]
+ [0.61584385]
+ [0.79565675]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16380,7 +16379,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[0.27681772]</t>
+          <t>[0.27681596]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16403,7 +16402,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[0.2804204]</t>
+          <t>[0.28041888]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16426,7 +16425,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[0.27681772 0.2804204  0.86284715 1.03437225 1.23037862 2.6675828 ]</t>
+          <t>[0.27681596 0.28041888 0.86278465 1.03427234 1.23026896 2.66748536]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16445,9 +16444,9 @@
       <c r="C624" t="inlineStr"/>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[[   0.79441052    0.55395562   -1.44305064    1.92923917   -0.83455466]
- [  25.27237675   34.66656555 -149.60997207  178.29465262  -87.62362285]
- [ -58.75798462  146.84982537 -267.89780337  343.88837311 -163.08241049]]</t>
+          <t>[[   0.79442572    0.55372676   -1.44233879    1.92835945   -0.83417313]
+ [  25.25251373   34.70896393 -149.70045151  178.4027773   -87.66380345]
+ [ -58.75784867  146.85853491 -267.93432636  343.92966468 -163.09602457]]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16466,9 +16465,9 @@
       <c r="C625" t="inlineStr"/>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[[   0.78747459    0.51523845   -1.31718706    1.77461309   -0.76013906]
- [  10.0033744    21.70764271  -81.06696629   98.03863937  -47.6826902 ]
- [ -56.84172525  138.10184608 -250.12389999  322.27973039 -152.41595124]]</t>
+          <t>[[   0.78749314    0.51497388   -1.31637323    1.77361253   -0.75970633]
+ [   9.99672887   21.72727412  -81.11430416   98.09443279  -47.70413162]
+ [ -56.84209778  138.11066217 -250.15721482  322.31740118 -152.42875076]]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16487,7 +16486,7 @@
       <c r="C626" t="inlineStr"/>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[[  3.77790126 -14.90320106  27.61025224 -22.16518533   6.68023289]
+          <t>[[  3.7778719  -14.90354769  27.6119285  -22.16771019   6.68145748]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -16512,7 +16511,7 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>[0.2804204  1.23037862 2.72979513]</t>
+          <t>[0.28041888 1.23026896 2.7296752 ]</t>
         </is>
       </c>
       <c r="E627" t="inlineStr"/>
@@ -16535,7 +16534,7 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>[0.27681772 1.03437225 2.6675828 ]</t>
+          <t>[0.27681596 1.03427234 2.66748536]</t>
         </is>
       </c>
       <c r="E628" t="inlineStr"/>
@@ -16558,7 +16557,7 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[4.84631947 0.         0.        ]</t>
+          <t>[4.84625485 0.         0.        ]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16582,18 +16581,18 @@
       <c r="D630" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00498288]
- [0.0188045 ]
- [0.04066384]
- [0.09086826]
- [0.16455947]
- [0.2572746 ]
- [0.32541388]
- [0.40539413]
- [0.49453555]
- [0.585026  ]
- [0.68190811]
- [0.78253821]]</t>
+ [0.00498289]
+ [0.01880455]
+ [0.04066396]
+ [0.09086864]
+ [0.16456039]
+ [0.25727627]
+ [0.32541609]
+ [0.40539694]
+ [0.494539  ]
+ [0.58503026]
+ [0.68191396]
+ [0.78254664]]</t>
         </is>
       </c>
       <c r="E630" t="inlineStr"/>
@@ -16616,7 +16615,7 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>[0.78253821]</t>
+          <t>[0.78254664]</t>
         </is>
       </c>
       <c r="E631" t="inlineStr"/>
@@ -16639,17 +16638,17 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-18898758.61436533]
- [-16467435.04378113]
- [-14035029.77769971]
- [-12200617.75376912]
- [-10364741.76695885]
- [ -8527625.39947677]
- [ -8121604.75269121]
- [ -7715220.43575091]
- [ -7308494.36839803]
- [ -7002670.35884422]
- [ -6740489.24674488]
+          <t>[[-18898632.79936309]
+ [-16467316.3960412 ]
+ [-14034918.29722209]
+ [-12200526.75118382]
+ [-10364671.24226586]
+ [ -8527575.35267612]
+ [ -8121556.58853549]
+ [ -7715174.15424011]
+ [ -7308449.96953217]
+ [ -7002629.55770935]
+ [ -6740463.25916297]
  [ -6521904.15      ]]</t>
         </is>
       </c>
@@ -16673,18 +16672,18 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[[2912477.94945145]
- [2913368.36493106]
- [2914178.82151509]
- [2914647.64122797]
- [2915900.07573135]
- [2916916.17574454]
- [2913313.58110531]
- [2913547.39372472]
- [2913728.84593033]
- [2913411.37722281]
- [2913293.74826054]
- [2913117.63746652]]</t>
+          <t>[[2912477.9494227 ]
+ [2913368.36486132]
+ [2914178.82141745]
+ [2914647.62552065]
+ [2915900.06036046]
+ [2916916.16069037]
+ [2913313.58551453]
+ [2913547.39822843]
+ [2913728.85051849]
+ [2913411.37346812]
+ [2913293.69609098]
+ [2913117.53185068]]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16707,18 +16706,18 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>[[-3354.8886536 ]
- [-3354.38299618]
- [-3353.78494067]
- [-3353.13135696]
- [-3351.4567481 ]
- [-3349.5148928 ]
- [-3353.21746765]
- [-3352.34758673]
- [-3351.41886296]
- [-3351.46049334]
- [-3350.81622026]
- [-3349.8206733 ]]</t>
+          <t>[[-3354.88865305]
+ [-3354.38299454]
+ [-3353.78493794]
+ [-3353.13136349]
+ [-3351.45675201]
+ [-3349.51489403]
+ [-3353.21745754]
+ [-3352.34757561]
+ [-3351.4188508 ]
+ [-3351.46048683]
+ [-3350.81626663]
+ [-3349.82062012]]</t>
         </is>
       </c>
       <c r="E634" t="inlineStr"/>
@@ -16741,18 +16740,18 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>[[-222000.1213977 ]
- [-262370.36134876]
- [-302659.63776342]
- [-360005.19098019]
- [-417033.21277742]
- [-473808.74949226]
- [-507713.38574218]
- [-541299.82751311]
- [-574579.16776414]
- [-605313.1213184 ]
- [-635519.79765777]
- [-664796.3428528 ]]</t>
+          <t>[[-222000.62462204]
+ [-262370.86474698]
+ [-302660.14161415]
+ [-360005.69490141]
+ [-417033.71452811]
+ [-473809.24678334]
+ [-507713.8796311 ]
+ [-541300.31826644]
+ [-574579.65571598]
+ [-605313.59731631]
+ [-635520.18726636]
+ [-664796.34329952]]</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
@@ -16775,17 +16774,17 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>[[ 3.90874210e+08]
- [ 3.55461496e+08]
- [ 3.19950026e+08]
- [ 2.69030270e+08]
- [ 2.17914536e+08]
- [ 1.66736910e+08]
- [ 1.36025001e+08]
- [ 1.05245599e+08]
- [ 7.44280184e+07]
- [ 4.56454843e+07]
- [ 1.68458911e+07]
+          <t>[[ 3.90874233e+08]
+ [ 3.55461520e+08]
+ [ 3.19950052e+08]
+ [ 2.69030298e+08]
+ [ 2.17914564e+08]
+ [ 1.66736937e+08]
+ [ 1.36025027e+08]
+ [ 1.05245623e+08]
+ [ 7.44280423e+07]
+ [ 4.56455063e+07]
+ [ 1.68459059e+07]
  [-1.19535913e+07]]</t>
         </is>
       </c>
@@ -16809,18 +16808,18 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[6490241.70612369]
- [6490165.75703074]
- [6490089.7643388 ]
- [6490411.19748203]
- [6490301.9066271 ]
- [6490192.532237  ]
- [6490989.52449027]
- [6490922.16686154]
- [6490854.75030081]
- [6491090.65232392]
- [6491269.68362726]
- [6491533.16137399]]</t>
+          <t>[[6490241.7039302 ]
+ [6490165.75483768]
+ [6490089.76214603]
+ [6490411.20038109]
+ [6490301.9094991 ]
+ [6490192.53508094]
+ [6490989.52306546]
+ [6490922.16542161]
+ [6490854.74884548]
+ [6491090.66035571]
+ [6491269.76889076]
+ [6491533.3864915 ]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16845,7 +16844,7 @@
         <is>
           <t>[[ 2.91197623e+06]
  [-3.35507584e+03]
- [-2.13286304e+07]]</t>
+ [-2.13284974e+07]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16868,8 +16867,8 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-1.81539164e+05]
- [ 4.26130976e+08]
+          <t>[[-1.81539668e+05]
+ [ 4.26131000e+08]
  [ 6.48957511e+06]]</t>
         </is>
       </c>
@@ -16893,7 +16892,7 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[2472905.80476494]</t>
+          <t>[2472892.51684965]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16916,7 +16915,7 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[-2.56537208e+00 -3.31208415e-02  9.50633382e+01]</t>
+          <t>[-2.56538586e+00 -3.31210194e-02  9.50634099e+01]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16939,7 +16938,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[3.17506352e+10 3.16062109e+10 2.89259248e+08 2.02613158e+02
+          <t>[3.17505190e+10 3.16060948e+10 2.89258840e+08 2.02613158e+02
  1.08611945e+07 1.44041114e+05]</t>
         </is>
       </c>
@@ -17541,7 +17540,7 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>direct_drive</t>
+          <t>geared</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
@@ -18448,7 +18447,7 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>[2.9]</t>
+          <t>[2.61767583]</t>
         </is>
       </c>
       <c r="E695" t="inlineStr"/>
@@ -19607,8 +19606,8 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[[0.04514543 0.07876121 0.17970068 0.06154362 0.16179615 0.04514809
-  0.14913002]]</t>
+          <t>[[0.04514556 0.0787609  0.1797001  0.06154424 0.16179655 0.04514718
+  0.14912947]]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -19824,7 +19823,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[10. 10. 10. 10.  6.]</t>
+          <t>[10.    10.    10.    10.     5.999]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -19874,7 +19873,7 @@
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>[[0.09262172 0.06441739 0.0176637  0.01174153 0.01345557]]</t>
+          <t>[[0.09262183 0.06441683 0.01766332 0.01174176 0.0134555 ]]</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
